--- a/SuppXLS/Scen_NCAP_NUC_NASZ.xlsx
+++ b/SuppXLS/Scen_NCAP_NUC_NASZ.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\barte\Downloads\TIMES_STUDENTS_FULL\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\barte\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28001E1F-E454-4D86-A43B-8730116710D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E43799B7-7F22-4188-8A7C-B0459BD89108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="40">
   <si>
     <t>~TFM_INS</t>
   </si>
@@ -136,6 +136,45 @@
   </si>
   <si>
     <t>Fully Hydrogen powerplants</t>
+  </si>
+  <si>
+    <t>ELE_NEW_HC_PC</t>
+  </si>
+  <si>
+    <t>ELE_NEW_WIND-ON</t>
+  </si>
+  <si>
+    <t>ELE_NEW_WIND-OFF</t>
+  </si>
+  <si>
+    <t>ELE_H2</t>
+  </si>
+  <si>
+    <t>ELE_H3</t>
+  </si>
+  <si>
+    <t>ELE_H4</t>
+  </si>
+  <si>
+    <t>ELE_H5</t>
+  </si>
+  <si>
+    <t>ELE_H6</t>
+  </si>
+  <si>
+    <t>ELE_GAS_H2</t>
+  </si>
+  <si>
+    <t>ELE_GAS_H3</t>
+  </si>
+  <si>
+    <t>ELE_GAS_H4</t>
+  </si>
+  <si>
+    <t>ELE_GAS_H5</t>
+  </si>
+  <si>
+    <t>ELE_GAS_H6</t>
   </si>
 </sst>
 </file>
@@ -257,7 +296,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -273,12 +312,11 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -583,10 +621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:O31"/>
+  <dimension ref="B2:O48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" zoomScale="119" zoomScaleNormal="126" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+    <sheetView tabSelected="1" zoomScale="119" zoomScaleNormal="126" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:XFD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -627,9 +665,9 @@
       <c r="F3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
     </row>
@@ -695,433 +733,612 @@
       <c r="F9" s="7"/>
     </row>
     <row r="10" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
+      <c r="B10" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="9">
+        <v>2030</v>
+      </c>
+      <c r="E10" cm="1">
+        <f t="array" ref="E10:E14">TRANSPOSE(K37:O37)</f>
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="11" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
+      <c r="B11" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="9">
+        <v>2035</v>
+      </c>
+      <c r="E11">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="12" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
+      <c r="B12" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="9">
+        <v>2040</v>
+      </c>
+      <c r="E12">
+        <v>30</v>
+      </c>
+      <c r="F12" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="13" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="9">
+        <v>2045</v>
+      </c>
+      <c r="E13">
+        <v>32</v>
+      </c>
+      <c r="F13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="9">
+        <v>2050</v>
+      </c>
+      <c r="E14">
+        <v>31</v>
+      </c>
+      <c r="F14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15">
+        <v>2030</v>
+      </c>
+      <c r="E15" s="9">
+        <v>13</v>
+      </c>
+      <c r="F15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16">
+        <v>2035</v>
+      </c>
+      <c r="E16" s="9">
         <v>15</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="F16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17">
+        <v>2040</v>
+      </c>
+      <c r="E17" s="9">
+        <v>17</v>
+      </c>
+      <c r="F17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18">
+        <v>2045</v>
+      </c>
+      <c r="E18" s="9">
+        <v>19</v>
+      </c>
+      <c r="F18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19">
+        <v>2050</v>
+      </c>
+      <c r="E19" s="9">
+        <v>22</v>
+      </c>
+      <c r="F19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20">
+        <v>2030</v>
+      </c>
+      <c r="E20" s="9">
+        <v>8.4</v>
+      </c>
+      <c r="F20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21">
+        <v>2035</v>
+      </c>
+      <c r="E21" s="9">
+        <v>12</v>
+      </c>
+      <c r="F21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22">
+        <v>2040</v>
+      </c>
+      <c r="E22" s="9">
         <v>18</v>
       </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-    </row>
-    <row r="14" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+      <c r="F22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23">
+        <v>2045</v>
+      </c>
+      <c r="E23" s="9">
+        <v>25</v>
+      </c>
+      <c r="F23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24">
+        <v>2050</v>
+      </c>
+      <c r="E24" s="9">
+        <v>33</v>
+      </c>
+      <c r="F24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25">
+        <v>2030</v>
+      </c>
+      <c r="E25" s="9">
+        <v>0</v>
+      </c>
+      <c r="F25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26">
+        <v>2035</v>
+      </c>
+      <c r="E26" s="9">
+        <v>2</v>
+      </c>
+      <c r="F26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27">
+        <v>2040</v>
+      </c>
+      <c r="E27" s="9">
+        <v>5</v>
+      </c>
+      <c r="F27" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28">
+        <v>2045</v>
+      </c>
+      <c r="E28" s="9">
+        <v>8</v>
+      </c>
+      <c r="F28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29">
+        <v>2050</v>
+      </c>
+      <c r="E29" s="9">
+        <v>12</v>
+      </c>
+      <c r="F29" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+    </row>
+    <row r="31" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14">
+      <c r="C31" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31">
         <v>0</v>
       </c>
-      <c r="E14">
+      <c r="E31">
         <v>2</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F31" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="10" t="s">
+    <row r="32" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15">
+      <c r="C32" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32">
         <v>0</v>
       </c>
-      <c r="E15">
+      <c r="E32">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="11">
+      <c r="F32" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="9:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="9:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="9:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I35" t="s">
+        <v>19</v>
+      </c>
+      <c r="J35" s="9">
+        <v>72.8</v>
+      </c>
+      <c r="K35" s="9">
+        <v>77</v>
+      </c>
+      <c r="L35" s="9">
+        <v>82</v>
+      </c>
+      <c r="M35" s="9">
+        <v>90</v>
+      </c>
+      <c r="N35" s="9">
+        <v>97</v>
+      </c>
+      <c r="O35" s="9">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="36" spans="9:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I36" t="s">
+        <v>20</v>
+      </c>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9">
         <v>2030</v>
       </c>
-      <c r="E16" cm="1">
-        <f t="array" ref="E16:E20">TRANSPOSE(K20:O20)</f>
+      <c r="L36" s="9">
+        <v>2035</v>
+      </c>
+      <c r="M36" s="9">
+        <v>2040</v>
+      </c>
+      <c r="N36" s="9">
+        <v>2045</v>
+      </c>
+      <c r="O36" s="9">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="37" spans="9:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I37" t="s">
+        <v>21</v>
+      </c>
+      <c r="J37" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K37" s="9">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="11">
-        <v>2035</v>
-      </c>
-      <c r="E17">
+      <c r="L37" s="9">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="11">
-        <v>2040</v>
-      </c>
-      <c r="E18">
+      <c r="M37" s="9">
         <v>30</v>
       </c>
-      <c r="I18" t="s">
+      <c r="N37" s="9">
+        <v>32</v>
+      </c>
+      <c r="O37" s="9">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="J38" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K38" s="9">
+        <v>16.883116883116884</v>
+      </c>
+      <c r="L38" s="9">
+        <v>24.390243902439025</v>
+      </c>
+      <c r="M38" s="9">
+        <v>33.333333333333329</v>
+      </c>
+      <c r="N38" s="9">
+        <v>32.989690721649481</v>
+      </c>
+      <c r="O38" s="9">
+        <v>28.18181818181818</v>
+      </c>
+    </row>
+    <row r="39" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I39" t="s">
+        <v>24</v>
+      </c>
+      <c r="J39" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K39" s="9">
+        <v>13</v>
+      </c>
+      <c r="L39" s="9">
+        <v>15</v>
+      </c>
+      <c r="M39" s="9">
+        <v>17</v>
+      </c>
+      <c r="N39" s="9">
         <v>19</v>
       </c>
-      <c r="J18" s="11">
-        <v>72.8</v>
-      </c>
-      <c r="K18" s="11">
-        <v>77</v>
-      </c>
-      <c r="L18" s="11">
-        <v>82</v>
-      </c>
-      <c r="M18" s="11">
-        <v>90</v>
-      </c>
-      <c r="N18" s="11">
-        <v>97</v>
-      </c>
-      <c r="O18" s="11">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="19" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="11">
-        <v>2045</v>
-      </c>
-      <c r="E19">
-        <v>32</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="O39" s="9">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="J40" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K40" s="9">
+        <v>16.883116883116884</v>
+      </c>
+      <c r="L40" s="9">
+        <v>18.292682926829269</v>
+      </c>
+      <c r="M40" s="9">
+        <v>18.888888888888889</v>
+      </c>
+      <c r="N40" s="9">
+        <v>19.587628865979383</v>
+      </c>
+      <c r="O40" s="9">
         <v>20</v>
       </c>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11">
-        <v>2030</v>
-      </c>
-      <c r="L19" s="11">
-        <v>2035</v>
-      </c>
-      <c r="M19" s="11">
-        <v>2040</v>
-      </c>
-      <c r="N19" s="11">
-        <v>2045</v>
-      </c>
-      <c r="O19" s="11">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="20" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="11">
-        <v>2050</v>
-      </c>
-      <c r="E20">
-        <v>31</v>
-      </c>
-      <c r="I20" t="s">
-        <v>21</v>
-      </c>
-      <c r="J20" s="11" t="s">
+    </row>
+    <row r="41" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I41" t="s">
+        <v>25</v>
+      </c>
+      <c r="J41" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K20" s="11">
-        <v>13</v>
-      </c>
-      <c r="L20" s="11">
+      <c r="K41" s="9">
+        <v>8.4</v>
+      </c>
+      <c r="L41" s="9">
+        <v>12</v>
+      </c>
+      <c r="M41" s="9">
+        <v>18</v>
+      </c>
+      <c r="N41" s="9">
+        <v>25</v>
+      </c>
+      <c r="O41" s="9">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="J42" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K42" s="9">
+        <v>10.90909090909091</v>
+      </c>
+      <c r="L42" s="9">
+        <v>14.634146341463413</v>
+      </c>
+      <c r="M42" s="9">
         <v>20</v>
       </c>
-      <c r="M20" s="11">
+      <c r="N42" s="9">
+        <v>25.773195876288657</v>
+      </c>
+      <c r="O42" s="9">
         <v>30</v>
       </c>
-      <c r="N20" s="11">
-        <v>32</v>
-      </c>
-      <c r="O20" s="11">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21">
-        <v>2030</v>
-      </c>
-      <c r="E21">
-        <v>13</v>
-      </c>
-      <c r="J21" s="11" t="s">
+    </row>
+    <row r="43" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I43" t="s">
+        <v>26</v>
+      </c>
+      <c r="J43" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K43" s="9">
+        <v>0</v>
+      </c>
+      <c r="L43" s="9">
+        <v>2</v>
+      </c>
+      <c r="M43" s="9">
+        <v>5</v>
+      </c>
+      <c r="N43" s="9">
+        <v>8</v>
+      </c>
+      <c r="O43" s="9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="J44" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="K21" s="11">
-        <v>16.883116883116884</v>
-      </c>
-      <c r="L21" s="11">
-        <v>24.390243902439025</v>
-      </c>
-      <c r="M21" s="11">
-        <v>33.333333333333329</v>
-      </c>
-      <c r="N21" s="11">
-        <v>32.989690721649481</v>
-      </c>
-      <c r="O21" s="11">
-        <v>28.18181818181818</v>
-      </c>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22">
-        <v>2035</v>
-      </c>
-      <c r="E22">
-        <v>20</v>
-      </c>
-      <c r="I22" t="s">
-        <v>24</v>
-      </c>
-      <c r="J22" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="K22" s="11">
-        <v>13</v>
-      </c>
-      <c r="L22" s="11">
-        <v>15</v>
-      </c>
-      <c r="M22" s="11">
-        <v>17</v>
-      </c>
-      <c r="N22" s="11">
-        <v>19</v>
-      </c>
-      <c r="O22" s="11">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23">
-        <v>2040</v>
-      </c>
-      <c r="E23">
-        <v>30</v>
-      </c>
-      <c r="J23" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="K23" s="11">
-        <v>16.883116883116884</v>
-      </c>
-      <c r="L23" s="11">
-        <v>18.292682926829269</v>
-      </c>
-      <c r="M23" s="11">
-        <v>18.888888888888889</v>
-      </c>
-      <c r="N23" s="11">
-        <v>19.587628865979383</v>
-      </c>
-      <c r="O23" s="11">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24">
-        <v>2045</v>
-      </c>
-      <c r="E24">
-        <v>32</v>
-      </c>
-      <c r="I24" t="s">
-        <v>25</v>
-      </c>
-      <c r="J24" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="K24" s="11">
-        <v>8.4</v>
-      </c>
-      <c r="L24" s="11">
-        <v>12</v>
-      </c>
-      <c r="M24" s="11">
-        <v>18</v>
-      </c>
-      <c r="N24" s="11">
-        <v>25</v>
-      </c>
-      <c r="O24" s="11">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25">
-        <v>2050</v>
-      </c>
-      <c r="E25">
-        <v>31</v>
-      </c>
-      <c r="J25" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="K25" s="11">
-        <v>10.90909090909091</v>
-      </c>
-      <c r="L25" s="11">
-        <v>14.634146341463413</v>
-      </c>
-      <c r="M25" s="11">
-        <v>20</v>
-      </c>
-      <c r="N25" s="11">
-        <v>25.773195876288657</v>
-      </c>
-      <c r="O25" s="11">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26">
-        <v>2030</v>
-      </c>
-      <c r="E26">
-        <v>13</v>
-      </c>
-      <c r="I26" t="s">
-        <v>26</v>
-      </c>
-      <c r="J26" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="K26" s="11">
+      <c r="K44" s="9">
         <v>0</v>
       </c>
-      <c r="L26" s="11">
-        <v>2</v>
-      </c>
-      <c r="M26" s="11">
-        <v>5</v>
-      </c>
-      <c r="N26" s="11">
-        <v>8</v>
-      </c>
-      <c r="O26" s="11">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27">
-        <v>2035</v>
-      </c>
-      <c r="E27">
-        <v>20</v>
-      </c>
-      <c r="J27" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="K27" s="11">
-        <v>0</v>
-      </c>
-      <c r="L27" s="11">
+      <c r="L44" s="9">
         <v>2.4390243902439024</v>
       </c>
-      <c r="M27" s="11">
+      <c r="M44" s="9">
         <v>5.5555555555555554</v>
       </c>
-      <c r="N27" s="11">
+      <c r="N44" s="9">
         <v>8.2474226804123703</v>
       </c>
-      <c r="O27" s="11">
+      <c r="O44" s="9">
         <v>10.909090909090908</v>
       </c>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28">
-        <v>2040</v>
-      </c>
-      <c r="E28">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29">
-        <v>2045</v>
-      </c>
-      <c r="E29">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>14</v>
-      </c>
-      <c r="D30">
-        <v>2050</v>
-      </c>
-      <c r="E30">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="I31" s="3">
-        <f t="shared" ref="I31" si="0">J89</f>
+    <row r="48" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I48" s="3">
+        <f t="shared" ref="I48" si="0">J106</f>
         <v>0</v>
       </c>
     </row>
@@ -1137,15 +1354,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100765A2D8ABDD1064B8560F0E0020228D7" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="faba48c57225b8cf4893994d76bae982">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="154c1c0f-2c06-4f37-a5b1-faba3524bf7f" xmlns:ns3="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="653a6a65a0f1497e1436c43ea8aacb76" ns2:_="" ns3:_="">
     <xsd:import namespace="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
@@ -1340,6 +1548,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1352,14 +1569,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8DDFBE94-8463-4610-B89B-ED8FC2DD2550}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1378,6 +1587,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0D1DF3B-E7FC-4762-97D3-E9AC14DDD5AF}">
   <ds:schemaRefs>

--- a/SuppXLS/Scen_NCAP_NUC_NASZ.xlsx
+++ b/SuppXLS/Scen_NCAP_NUC_NASZ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\barte\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E43799B7-7F22-4188-8A7C-B0459BD89108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAC16712-2AEC-4A79-840A-329B771FC0E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="32">
   <si>
     <t>~TFM_INS</t>
   </si>
@@ -150,31 +150,7 @@
     <t>ELE_H2</t>
   </si>
   <si>
-    <t>ELE_H3</t>
-  </si>
-  <si>
-    <t>ELE_H4</t>
-  </si>
-  <si>
-    <t>ELE_H5</t>
-  </si>
-  <si>
-    <t>ELE_H6</t>
-  </si>
-  <si>
     <t>ELE_GAS_H2</t>
-  </si>
-  <si>
-    <t>ELE_GAS_H3</t>
-  </si>
-  <si>
-    <t>ELE_GAS_H4</t>
-  </si>
-  <si>
-    <t>ELE_GAS_H5</t>
-  </si>
-  <si>
-    <t>ELE_GAS_H6</t>
   </si>
 </sst>
 </file>
@@ -621,10 +597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:O48"/>
+  <dimension ref="B2:O45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="119" zoomScaleNormal="126" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:XFD30"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -701,36 +677,67 @@
       <c r="F5" s="7"/>
     </row>
     <row r="6" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
+      <c r="B6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
     </row>
     <row r="7" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
+      <c r="B7" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="9">
+        <v>2030</v>
+      </c>
+      <c r="E7" cm="1">
+        <f t="array" ref="E7:E11">TRANSPOSE(K34:O34)</f>
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="8" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
+      <c r="B8" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="9">
+        <v>2035</v>
+      </c>
+      <c r="E8">
+        <v>20</v>
+      </c>
+      <c r="F8" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="9" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
+      <c r="B9" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="9">
+        <v>2040</v>
+      </c>
+      <c r="E9">
+        <v>30</v>
+      </c>
+      <c r="F9" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="10" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="10" t="s">
@@ -740,14 +747,13 @@
         <v>7</v>
       </c>
       <c r="D10" s="9">
-        <v>2030</v>
-      </c>
-      <c r="E10" cm="1">
-        <f t="array" ref="E10:E14">TRANSPOSE(K37:O37)</f>
-        <v>13</v>
+        <v>2045</v>
+      </c>
+      <c r="E10">
+        <v>32</v>
       </c>
       <c r="F10" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -758,64 +764,64 @@
         <v>7</v>
       </c>
       <c r="D11" s="9">
+        <v>2050</v>
+      </c>
+      <c r="E11">
+        <v>31</v>
+      </c>
+      <c r="F11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12">
+        <v>2030</v>
+      </c>
+      <c r="E12" s="9">
+        <v>13</v>
+      </c>
+      <c r="F12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13">
         <v>2035</v>
       </c>
-      <c r="E11">
-        <v>20</v>
-      </c>
-      <c r="F11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="9">
+      <c r="E13" s="9">
+        <v>15</v>
+      </c>
+      <c r="F13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14">
         <v>2040</v>
       </c>
-      <c r="E12">
-        <v>30</v>
-      </c>
-      <c r="F12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="9">
-        <v>2045</v>
-      </c>
-      <c r="E13">
-        <v>32</v>
-      </c>
-      <c r="F13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="9">
-        <v>2050</v>
-      </c>
-      <c r="E14">
-        <v>31</v>
+      <c r="E14" s="9">
+        <v>17</v>
       </c>
       <c r="F14" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -826,10 +832,10 @@
         <v>7</v>
       </c>
       <c r="D15">
-        <v>2030</v>
+        <v>2045</v>
       </c>
       <c r="E15" s="9">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F15" t="s">
         <v>28</v>
@@ -843,16 +849,16 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>2035</v>
+        <v>2050</v>
       </c>
       <c r="E16" s="9">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F16" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>14</v>
       </c>
@@ -860,67 +866,67 @@
         <v>7</v>
       </c>
       <c r="D17">
+        <v>2030</v>
+      </c>
+      <c r="E17" s="9">
+        <v>8.4</v>
+      </c>
+      <c r="F17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18">
+        <v>2035</v>
+      </c>
+      <c r="E18" s="9">
+        <v>12</v>
+      </c>
+      <c r="F18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19">
         <v>2040</v>
       </c>
-      <c r="E17" s="9">
-        <v>17</v>
-      </c>
-      <c r="F17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18">
+      <c r="E19" s="9">
+        <v>18</v>
+      </c>
+      <c r="F19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20">
         <v>2045</v>
       </c>
-      <c r="E18" s="9">
-        <v>19</v>
-      </c>
-      <c r="F18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19">
-        <v>2050</v>
-      </c>
-      <c r="E19" s="9">
-        <v>22</v>
-      </c>
-      <c r="F19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20">
-        <v>2030</v>
-      </c>
       <c r="E20" s="9">
-        <v>8.4</v>
+        <v>25</v>
       </c>
       <c r="F20" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>14</v>
       </c>
@@ -928,16 +934,16 @@
         <v>7</v>
       </c>
       <c r="D21">
-        <v>2035</v>
+        <v>2050</v>
       </c>
       <c r="E21" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="F21" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>14</v>
       </c>
@@ -945,67 +951,67 @@
         <v>7</v>
       </c>
       <c r="D22">
+        <v>2030</v>
+      </c>
+      <c r="E22" s="9">
+        <v>0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23">
+        <v>2035</v>
+      </c>
+      <c r="E23" s="9">
+        <v>2</v>
+      </c>
+      <c r="F23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24">
         <v>2040</v>
       </c>
-      <c r="E22" s="9">
-        <v>18</v>
-      </c>
-      <c r="F22" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23">
+      <c r="E24" s="9">
+        <v>5</v>
+      </c>
+      <c r="F24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25">
         <v>2045</v>
       </c>
-      <c r="E23" s="9">
-        <v>25</v>
-      </c>
-      <c r="F23" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24">
-        <v>2050</v>
-      </c>
-      <c r="E24" s="9">
-        <v>33</v>
-      </c>
-      <c r="F24" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25">
-        <v>2030</v>
-      </c>
       <c r="E25" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F25" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>14</v>
       </c>
@@ -1013,332 +1019,281 @@
         <v>7</v>
       </c>
       <c r="D26">
+        <v>2050</v>
+      </c>
+      <c r="E26" s="9">
+        <v>12</v>
+      </c>
+      <c r="F26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+    </row>
+    <row r="28" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I32" t="s">
+        <v>19</v>
+      </c>
+      <c r="J32" s="9">
+        <v>72.8</v>
+      </c>
+      <c r="K32" s="9">
+        <v>77</v>
+      </c>
+      <c r="L32" s="9">
+        <v>82</v>
+      </c>
+      <c r="M32" s="9">
+        <v>90</v>
+      </c>
+      <c r="N32" s="9">
+        <v>97</v>
+      </c>
+      <c r="O32" s="9">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="33" spans="9:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I33" t="s">
+        <v>20</v>
+      </c>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9">
+        <v>2030</v>
+      </c>
+      <c r="L33" s="9">
         <v>2035</v>
       </c>
-      <c r="E26" s="9">
+      <c r="M33" s="9">
+        <v>2040</v>
+      </c>
+      <c r="N33" s="9">
+        <v>2045</v>
+      </c>
+      <c r="O33" s="9">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="34" spans="9:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I34" t="s">
+        <v>21</v>
+      </c>
+      <c r="J34" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K34" s="9">
+        <v>13</v>
+      </c>
+      <c r="L34" s="9">
+        <v>20</v>
+      </c>
+      <c r="M34" s="9">
+        <v>30</v>
+      </c>
+      <c r="N34" s="9">
+        <v>32</v>
+      </c>
+      <c r="O34" s="9">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="J35" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K35" s="9">
+        <v>16.883116883116884</v>
+      </c>
+      <c r="L35" s="9">
+        <v>24.390243902439025</v>
+      </c>
+      <c r="M35" s="9">
+        <v>33.333333333333329</v>
+      </c>
+      <c r="N35" s="9">
+        <v>32.989690721649481</v>
+      </c>
+      <c r="O35" s="9">
+        <v>28.18181818181818</v>
+      </c>
+    </row>
+    <row r="36" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I36" t="s">
+        <v>24</v>
+      </c>
+      <c r="J36" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K36" s="9">
+        <v>13</v>
+      </c>
+      <c r="L36" s="9">
+        <v>15</v>
+      </c>
+      <c r="M36" s="9">
+        <v>17</v>
+      </c>
+      <c r="N36" s="9">
+        <v>19</v>
+      </c>
+      <c r="O36" s="9">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="J37" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K37" s="9">
+        <v>16.883116883116884</v>
+      </c>
+      <c r="L37" s="9">
+        <v>18.292682926829269</v>
+      </c>
+      <c r="M37" s="9">
+        <v>18.888888888888889</v>
+      </c>
+      <c r="N37" s="9">
+        <v>19.587628865979383</v>
+      </c>
+      <c r="O37" s="9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I38" t="s">
+        <v>25</v>
+      </c>
+      <c r="J38" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K38" s="9">
+        <v>8.4</v>
+      </c>
+      <c r="L38" s="9">
+        <v>12</v>
+      </c>
+      <c r="M38" s="9">
+        <v>18</v>
+      </c>
+      <c r="N38" s="9">
+        <v>25</v>
+      </c>
+      <c r="O38" s="9">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="J39" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K39" s="9">
+        <v>10.90909090909091</v>
+      </c>
+      <c r="L39" s="9">
+        <v>14.634146341463413</v>
+      </c>
+      <c r="M39" s="9">
+        <v>20</v>
+      </c>
+      <c r="N39" s="9">
+        <v>25.773195876288657</v>
+      </c>
+      <c r="O39" s="9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I40" t="s">
+        <v>26</v>
+      </c>
+      <c r="J40" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K40" s="9">
+        <v>0</v>
+      </c>
+      <c r="L40" s="9">
         <v>2</v>
       </c>
-      <c r="F26" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27">
-        <v>2040</v>
-      </c>
-      <c r="E27" s="9">
+      <c r="M40" s="9">
         <v>5</v>
       </c>
-      <c r="F27" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28">
-        <v>2045</v>
-      </c>
-      <c r="E28" s="9">
+      <c r="N40" s="9">
         <v>8</v>
       </c>
-      <c r="F28" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29">
-        <v>2050</v>
-      </c>
-      <c r="E29" s="9">
+      <c r="O40" s="9">
         <v>12</v>
       </c>
-      <c r="F29" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-    </row>
-    <row r="31" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31">
+    </row>
+    <row r="41" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="J41" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K41" s="9">
         <v>0</v>
       </c>
-      <c r="E31">
-        <v>2</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32">
-        <v>2</v>
-      </c>
-      <c r="F32" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="33" spans="9:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" spans="9:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="9:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I35" t="s">
-        <v>19</v>
-      </c>
-      <c r="J35" s="9">
-        <v>72.8</v>
-      </c>
-      <c r="K35" s="9">
-        <v>77</v>
-      </c>
-      <c r="L35" s="9">
-        <v>82</v>
-      </c>
-      <c r="M35" s="9">
-        <v>90</v>
-      </c>
-      <c r="N35" s="9">
-        <v>97</v>
-      </c>
-      <c r="O35" s="9">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="36" spans="9:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I36" t="s">
-        <v>20</v>
-      </c>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9">
-        <v>2030</v>
-      </c>
-      <c r="L36" s="9">
-        <v>2035</v>
-      </c>
-      <c r="M36" s="9">
-        <v>2040</v>
-      </c>
-      <c r="N36" s="9">
-        <v>2045</v>
-      </c>
-      <c r="O36" s="9">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="37" spans="9:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I37" t="s">
-        <v>21</v>
-      </c>
-      <c r="J37" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K37" s="9">
-        <v>13</v>
-      </c>
-      <c r="L37" s="9">
-        <v>20</v>
-      </c>
-      <c r="M37" s="9">
-        <v>30</v>
-      </c>
-      <c r="N37" s="9">
-        <v>32</v>
-      </c>
-      <c r="O37" s="9">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="38" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="J38" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="K38" s="9">
-        <v>16.883116883116884</v>
-      </c>
-      <c r="L38" s="9">
-        <v>24.390243902439025</v>
-      </c>
-      <c r="M38" s="9">
-        <v>33.333333333333329</v>
-      </c>
-      <c r="N38" s="9">
-        <v>32.989690721649481</v>
-      </c>
-      <c r="O38" s="9">
-        <v>28.18181818181818</v>
-      </c>
-    </row>
-    <row r="39" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I39" t="s">
-        <v>24</v>
-      </c>
-      <c r="J39" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K39" s="9">
-        <v>13</v>
-      </c>
-      <c r="L39" s="9">
-        <v>15</v>
-      </c>
-      <c r="M39" s="9">
-        <v>17</v>
-      </c>
-      <c r="N39" s="9">
-        <v>19</v>
-      </c>
-      <c r="O39" s="9">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="40" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="J40" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="K40" s="9">
-        <v>16.883116883116884</v>
-      </c>
-      <c r="L40" s="9">
-        <v>18.292682926829269</v>
-      </c>
-      <c r="M40" s="9">
-        <v>18.888888888888889</v>
-      </c>
-      <c r="N40" s="9">
-        <v>19.587628865979383</v>
-      </c>
-      <c r="O40" s="9">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="41" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I41" t="s">
-        <v>25</v>
-      </c>
-      <c r="J41" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K41" s="9">
-        <v>8.4</v>
-      </c>
       <c r="L41" s="9">
-        <v>12</v>
+        <v>2.4390243902439024</v>
       </c>
       <c r="M41" s="9">
-        <v>18</v>
+        <v>5.5555555555555554</v>
       </c>
       <c r="N41" s="9">
-        <v>25</v>
+        <v>8.2474226804123703</v>
       </c>
       <c r="O41" s="9">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="42" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="J42" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="K42" s="9">
-        <v>10.90909090909091</v>
-      </c>
-      <c r="L42" s="9">
-        <v>14.634146341463413</v>
-      </c>
-      <c r="M42" s="9">
-        <v>20</v>
-      </c>
-      <c r="N42" s="9">
-        <v>25.773195876288657</v>
-      </c>
-      <c r="O42" s="9">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="43" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I43" t="s">
-        <v>26</v>
-      </c>
-      <c r="J43" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K43" s="9">
-        <v>0</v>
-      </c>
-      <c r="L43" s="9">
-        <v>2</v>
-      </c>
-      <c r="M43" s="9">
-        <v>5</v>
-      </c>
-      <c r="N43" s="9">
-        <v>8</v>
-      </c>
-      <c r="O43" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="J44" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="K44" s="9">
-        <v>0</v>
-      </c>
-      <c r="L44" s="9">
-        <v>2.4390243902439024</v>
-      </c>
-      <c r="M44" s="9">
-        <v>5.5555555555555554</v>
-      </c>
-      <c r="N44" s="9">
-        <v>8.2474226804123703</v>
-      </c>
-      <c r="O44" s="9">
         <v>10.909090909090908</v>
       </c>
     </row>
-    <row r="48" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I48" s="3">
-        <f t="shared" ref="I48" si="0">J106</f>
+    <row r="45" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I45" s="3">
+        <f t="shared" ref="I45" si="0">J103</f>
         <v>0</v>
       </c>
     </row>
@@ -1549,15 +1504,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
@@ -1566,6 +1512,15 @@
     <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1588,14 +1543,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0D1DF3B-E7FC-4762-97D3-E9AC14DDD5AF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -1606,4 +1553,12 @@
     <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/SuppXLS/Scen_NCAP_NUC_NASZ.xlsx
+++ b/SuppXLS/Scen_NCAP_NUC_NASZ.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\barte\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0bc05d8c8ec7216c/Desktop/Semestr 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAC16712-2AEC-4A79-840A-329B771FC0E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{DAC16712-2AEC-4A79-840A-329B771FC0E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77393B2F-BAD2-4D66-AC1A-23A8A1FF6684}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="33">
   <si>
     <t>~TFM_INS</t>
   </si>
@@ -151,6 +151,9 @@
   </si>
   <si>
     <t>ELE_GAS_H2</t>
+  </si>
+  <si>
+    <t>CAP_BND</t>
   </si>
 </sst>
 </file>
@@ -599,8 +602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:O45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="119" zoomScaleNormal="126" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="119" zoomScaleNormal="126" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -692,7 +695,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="D7" s="9">
         <v>2030</v>
@@ -710,7 +713,7 @@
         <v>14</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="D8" s="9">
         <v>2035</v>
@@ -727,7 +730,7 @@
         <v>14</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="D9" s="9">
         <v>2040</v>
@@ -744,7 +747,7 @@
         <v>14</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="D10" s="9">
         <v>2045</v>
@@ -761,7 +764,7 @@
         <v>14</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="D11" s="9">
         <v>2050</v>
@@ -778,7 +781,7 @@
         <v>14</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="D12">
         <v>2030</v>
@@ -795,7 +798,7 @@
         <v>14</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="D13">
         <v>2035</v>
@@ -812,7 +815,7 @@
         <v>14</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="D14">
         <v>2040</v>
@@ -829,7 +832,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="D15">
         <v>2045</v>
@@ -846,7 +849,7 @@
         <v>14</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="D16">
         <v>2050</v>
@@ -863,7 +866,7 @@
         <v>14</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="D17">
         <v>2030</v>
@@ -880,7 +883,7 @@
         <v>14</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="D18">
         <v>2035</v>
@@ -897,7 +900,7 @@
         <v>14</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="D19">
         <v>2040</v>
@@ -914,7 +917,7 @@
         <v>14</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="D20">
         <v>2045</v>
@@ -931,7 +934,7 @@
         <v>14</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="D21">
         <v>2050</v>
@@ -948,7 +951,7 @@
         <v>14</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="D22">
         <v>2030</v>
@@ -965,7 +968,7 @@
         <v>14</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="D23">
         <v>2035</v>
@@ -982,7 +985,7 @@
         <v>14</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="D24">
         <v>2040</v>
@@ -999,7 +1002,7 @@
         <v>14</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="D25">
         <v>2045</v>
@@ -1016,7 +1019,7 @@
         <v>14</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="D26">
         <v>2050</v>
@@ -1504,6 +1507,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
@@ -1512,15 +1524,6 @@
     <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1543,6 +1546,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0D1DF3B-E7FC-4762-97D3-E9AC14DDD5AF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -1553,12 +1564,4 @@
     <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/SuppXLS/Scen_NCAP_NUC_NASZ.xlsx
+++ b/SuppXLS/Scen_NCAP_NUC_NASZ.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0bc05d8c8ec7216c/Desktop/Semestr 1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\barte\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{DAC16712-2AEC-4A79-840A-329B771FC0E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77393B2F-BAD2-4D66-AC1A-23A8A1FF6684}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2CAF8C8-1CB6-4618-A822-25DA1F844952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="36">
   <si>
     <t>~TFM_INS</t>
   </si>
@@ -151,6 +151,15 @@
   </si>
   <si>
     <t>ELE_GAS_H2</t>
+  </si>
+  <si>
+    <t>Cset_CN</t>
+  </si>
+  <si>
+    <t>FLO_BND</t>
+  </si>
+  <si>
+    <t>HYDROGEN</t>
   </si>
   <si>
     <t>CAP_BND</t>
@@ -275,7 +284,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -293,6 +302,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -600,10 +612,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:O45"/>
+  <dimension ref="B2:P55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="119" zoomScaleNormal="126" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:C26"/>
+    <sheetView tabSelected="1" zoomScale="119" zoomScaleNormal="126" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -614,12 +626,10 @@
     <col min="4" max="4" width="13.5546875" customWidth="1"/>
     <col min="5" max="5" width="11.88671875" customWidth="1"/>
     <col min="6" max="6" width="30" customWidth="1"/>
-    <col min="7" max="8" width="2.21875" customWidth="1"/>
-    <col min="9" max="9" width="12.44140625" customWidth="1"/>
-    <col min="10" max="10" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:14" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
@@ -628,7 +638,7 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="2:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
@@ -644,13 +654,17 @@
       <c r="F3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="2"/>
+      <c r="G3" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="11"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
       <c r="M3" s="2"/>
-    </row>
-    <row r="4" spans="2:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N3" s="2"/>
+    </row>
+    <row r="4" spans="2:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>8</v>
       </c>
@@ -666,9 +680,9 @@
       <c r="F4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
         <v>13</v>
       </c>
@@ -679,7 +693,7 @@
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
     </row>
-    <row r="6" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
         <v>13</v>
       </c>
@@ -690,30 +704,30 @@
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
     </row>
-    <row r="7" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D7" s="9">
         <v>2030</v>
       </c>
       <c r="E7" cm="1">
-        <f t="array" ref="E7:E11">TRANSPOSE(K34:O34)</f>
+        <f t="array" ref="E7:E11">TRANSPOSE(L44:P44)</f>
         <v>13</v>
       </c>
       <c r="F7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D8" s="9">
         <v>2035</v>
@@ -725,12 +739,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D9" s="9">
         <v>2040</v>
@@ -742,12 +756,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="10" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D10" s="9">
         <v>2045</v>
@@ -759,12 +773,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D11" s="9">
         <v>2050</v>
@@ -776,12 +790,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D12">
         <v>2030</v>
@@ -793,12 +807,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D13">
         <v>2035</v>
@@ -810,12 +824,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D14">
         <v>2040</v>
@@ -827,12 +841,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D15">
         <v>2045</v>
@@ -844,12 +858,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>14</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D16">
         <v>2050</v>
@@ -861,12 +875,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>14</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D17">
         <v>2030</v>
@@ -878,12 +892,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>14</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D18">
         <v>2035</v>
@@ -895,12 +909,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>14</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D19">
         <v>2040</v>
@@ -912,12 +926,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>14</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D20">
         <v>2045</v>
@@ -929,12 +943,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>14</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D21">
         <v>2050</v>
@@ -946,12 +960,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>14</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D22">
         <v>2030</v>
@@ -963,12 +977,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>14</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D23">
         <v>2035</v>
@@ -980,12 +994,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>14</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D24">
         <v>2040</v>
@@ -997,12 +1011,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>14</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D25">
         <v>2045</v>
@@ -1014,12 +1028,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>14</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D26">
         <v>2050</v>
@@ -1031,278 +1045,478 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="7" t="s">
+    <row r="27" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27">
+        <v>2030</v>
+      </c>
+      <c r="E27" s="9">
+        <v>10</v>
+      </c>
+      <c r="F27" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28">
+        <v>2035</v>
+      </c>
+      <c r="E28" s="9">
+        <v>20</v>
+      </c>
+      <c r="F28" t="s">
+        <v>30</v>
+      </c>
+      <c r="G28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29">
+        <v>2040</v>
+      </c>
+      <c r="E29" s="9">
+        <v>20</v>
+      </c>
+      <c r="F29" t="s">
+        <v>30</v>
+      </c>
+      <c r="G29" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30">
+        <v>2045</v>
+      </c>
+      <c r="E30" s="9">
+        <v>30</v>
+      </c>
+      <c r="F30" t="s">
+        <v>30</v>
+      </c>
+      <c r="G30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31">
+        <v>2050</v>
+      </c>
+      <c r="E31" s="9">
+        <v>40</v>
+      </c>
+      <c r="F31" t="s">
+        <v>30</v>
+      </c>
+      <c r="G31" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32">
+        <v>2030</v>
+      </c>
+      <c r="E32" s="9">
+        <v>4</v>
+      </c>
+      <c r="F32" t="s">
+        <v>31</v>
+      </c>
+      <c r="G32" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33">
+        <v>2035</v>
+      </c>
+      <c r="E33" s="9">
+        <v>8</v>
+      </c>
+      <c r="F33" t="s">
+        <v>31</v>
+      </c>
+      <c r="G33" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34">
+        <v>2040</v>
+      </c>
+      <c r="E34" s="9">
+        <v>12</v>
+      </c>
+      <c r="F34" t="s">
+        <v>31</v>
+      </c>
+      <c r="G34" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D35">
+        <v>2045</v>
+      </c>
+      <c r="E35" s="9">
+        <v>16</v>
+      </c>
+      <c r="F35" t="s">
+        <v>31</v>
+      </c>
+      <c r="G35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D36">
+        <v>2050</v>
+      </c>
+      <c r="E36" s="9">
+        <v>20</v>
+      </c>
+      <c r="F36" t="s">
+        <v>31</v>
+      </c>
+      <c r="G36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C37" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-    </row>
-    <row r="28" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+    </row>
+    <row r="38" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C38" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D28">
+      <c r="D38">
         <v>0</v>
       </c>
-      <c r="E28">
+      <c r="E38">
         <v>2</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="F38" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="3" t="s">
+    <row r="39" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C39" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D29">
+      <c r="D39">
         <v>0</v>
       </c>
-      <c r="E29">
+      <c r="E39">
         <v>2</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F39" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I32" t="s">
+    <row r="40" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J42" t="s">
         <v>19</v>
       </c>
-      <c r="J32" s="9">
+      <c r="K42" s="9">
         <v>72.8</v>
       </c>
-      <c r="K32" s="9">
+      <c r="L42" s="9">
         <v>77</v>
       </c>
-      <c r="L32" s="9">
+      <c r="M42" s="9">
         <v>82</v>
       </c>
-      <c r="M32" s="9">
+      <c r="N42" s="9">
         <v>90</v>
       </c>
-      <c r="N32" s="9">
+      <c r="O42" s="9">
         <v>97</v>
       </c>
-      <c r="O32" s="9">
+      <c r="P42" s="9">
         <v>110</v>
       </c>
     </row>
-    <row r="33" spans="9:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I33" t="s">
+    <row r="43" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J43" t="s">
         <v>20</v>
       </c>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9">
+      <c r="K43" s="9"/>
+      <c r="L43" s="9">
         <v>2030</v>
       </c>
-      <c r="L33" s="9">
+      <c r="M43" s="9">
         <v>2035</v>
       </c>
-      <c r="M33" s="9">
+      <c r="N43" s="9">
         <v>2040</v>
       </c>
-      <c r="N33" s="9">
+      <c r="O43" s="9">
         <v>2045</v>
       </c>
-      <c r="O33" s="9">
+      <c r="P43" s="9">
         <v>2050</v>
       </c>
     </row>
-    <row r="34" spans="9:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I34" t="s">
+    <row r="44" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J44" t="s">
         <v>21</v>
       </c>
-      <c r="J34" s="9" t="s">
+      <c r="K44" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K34" s="9">
+      <c r="L44" s="9">
         <v>13</v>
       </c>
-      <c r="L34" s="9">
+      <c r="M44" s="9">
         <v>20</v>
       </c>
-      <c r="M34" s="9">
+      <c r="N44" s="9">
         <v>30</v>
       </c>
-      <c r="N34" s="9">
+      <c r="O44" s="9">
         <v>32</v>
       </c>
-      <c r="O34" s="9">
+      <c r="P44" s="9">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="J35" s="9" t="s">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="K45" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="K35" s="9">
+      <c r="L45" s="9">
         <v>16.883116883116884</v>
       </c>
-      <c r="L35" s="9">
+      <c r="M45" s="9">
         <v>24.390243902439025</v>
       </c>
-      <c r="M35" s="9">
+      <c r="N45" s="9">
         <v>33.333333333333329</v>
       </c>
-      <c r="N35" s="9">
+      <c r="O45" s="9">
         <v>32.989690721649481</v>
       </c>
-      <c r="O35" s="9">
+      <c r="P45" s="9">
         <v>28.18181818181818</v>
       </c>
     </row>
-    <row r="36" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I36" t="s">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="J46" t="s">
         <v>24</v>
       </c>
-      <c r="J36" s="9" t="s">
+      <c r="K46" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K36" s="9">
+      <c r="L46" s="9">
         <v>13</v>
       </c>
-      <c r="L36" s="9">
+      <c r="M46" s="9">
         <v>15</v>
       </c>
-      <c r="M36" s="9">
+      <c r="N46" s="9">
         <v>17</v>
       </c>
-      <c r="N36" s="9">
+      <c r="O46" s="9">
         <v>19</v>
       </c>
-      <c r="O36" s="9">
+      <c r="P46" s="9">
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="J37" s="9" t="s">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="K47" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="K37" s="9">
+      <c r="L47" s="9">
         <v>16.883116883116884</v>
       </c>
-      <c r="L37" s="9">
+      <c r="M47" s="9">
         <v>18.292682926829269</v>
       </c>
-      <c r="M37" s="9">
+      <c r="N47" s="9">
         <v>18.888888888888889</v>
       </c>
-      <c r="N37" s="9">
+      <c r="O47" s="9">
         <v>19.587628865979383</v>
       </c>
-      <c r="O37" s="9">
+      <c r="P47" s="9">
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I38" t="s">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="J48" t="s">
         <v>25</v>
       </c>
-      <c r="J38" s="9" t="s">
+      <c r="K48" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K38" s="9">
+      <c r="L48" s="9">
         <v>8.4</v>
       </c>
-      <c r="L38" s="9">
+      <c r="M48" s="9">
         <v>12</v>
       </c>
-      <c r="M38" s="9">
+      <c r="N48" s="9">
         <v>18</v>
       </c>
-      <c r="N38" s="9">
+      <c r="O48" s="9">
         <v>25</v>
       </c>
-      <c r="O38" s="9">
+      <c r="P48" s="9">
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="J39" s="9" t="s">
+    <row r="49" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="K49" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="K39" s="9">
+      <c r="L49" s="9">
         <v>10.90909090909091</v>
       </c>
-      <c r="L39" s="9">
+      <c r="M49" s="9">
         <v>14.634146341463413</v>
       </c>
-      <c r="M39" s="9">
+      <c r="N49" s="9">
         <v>20</v>
       </c>
-      <c r="N39" s="9">
+      <c r="O49" s="9">
         <v>25.773195876288657</v>
       </c>
-      <c r="O39" s="9">
+      <c r="P49" s="9">
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I40" t="s">
+    <row r="50" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J50" t="s">
         <v>26</v>
       </c>
-      <c r="J40" s="9" t="s">
+      <c r="K50" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K40" s="9">
+      <c r="L50" s="9">
         <v>0</v>
       </c>
-      <c r="L40" s="9">
+      <c r="M50" s="9">
         <v>2</v>
       </c>
-      <c r="M40" s="9">
+      <c r="N50" s="9">
         <v>5</v>
       </c>
-      <c r="N40" s="9">
+      <c r="O50" s="9">
         <v>8</v>
       </c>
-      <c r="O40" s="9">
+      <c r="P50" s="9">
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="J41" s="9" t="s">
+    <row r="51" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="K51" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="K41" s="9">
+      <c r="L51" s="9">
         <v>0</v>
       </c>
-      <c r="L41" s="9">
+      <c r="M51" s="9">
         <v>2.4390243902439024</v>
       </c>
-      <c r="M41" s="9">
+      <c r="N51" s="9">
         <v>5.5555555555555554</v>
       </c>
-      <c r="N41" s="9">
+      <c r="O51" s="9">
         <v>8.2474226804123703</v>
       </c>
-      <c r="O41" s="9">
+      <c r="P51" s="9">
         <v>10.909090909090908</v>
       </c>
     </row>
-    <row r="45" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I45" s="3">
-        <f t="shared" ref="I45" si="0">J103</f>
+    <row r="55" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J55" s="3">
+        <f t="shared" ref="J55" si="0">K113</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="J3:L3"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1507,15 +1721,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
@@ -1524,6 +1729,15 @@
     <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1546,14 +1760,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0D1DF3B-E7FC-4762-97D3-E9AC14DDD5AF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -1564,4 +1770,12 @@
     <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/SuppXLS/Scen_NCAP_NUC_NASZ.xlsx
+++ b/SuppXLS/Scen_NCAP_NUC_NASZ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\barte\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2CAF8C8-1CB6-4618-A822-25DA1F844952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF6FB78A-F553-4E36-ADB1-C808727DC916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -614,8 +614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:P55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="119" zoomScaleNormal="126" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="119" zoomScaleNormal="126" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1056,7 +1056,7 @@
         <v>2030</v>
       </c>
       <c r="E27" s="9">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F27" t="s">
         <v>30</v>
@@ -1076,7 +1076,7 @@
         <v>2035</v>
       </c>
       <c r="E28" s="9">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F28" t="s">
         <v>30</v>
@@ -1096,7 +1096,7 @@
         <v>2040</v>
       </c>
       <c r="E29" s="9">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="F29" t="s">
         <v>30</v>
@@ -1116,7 +1116,7 @@
         <v>2045</v>
       </c>
       <c r="E30" s="9">
-        <v>30</v>
+        <v>350</v>
       </c>
       <c r="F30" t="s">
         <v>30</v>
@@ -1136,7 +1136,7 @@
         <v>2050</v>
       </c>
       <c r="E31" s="9">
-        <v>40</v>
+        <v>470</v>
       </c>
       <c r="F31" t="s">
         <v>30</v>
@@ -1156,7 +1156,7 @@
         <v>2030</v>
       </c>
       <c r="E32" s="9">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="F32" t="s">
         <v>31</v>
@@ -1176,7 +1176,7 @@
         <v>2035</v>
       </c>
       <c r="E33" s="9">
-        <v>8</v>
+        <v>90</v>
       </c>
       <c r="F33" t="s">
         <v>31</v>
@@ -1196,7 +1196,7 @@
         <v>2040</v>
       </c>
       <c r="E34" s="9">
-        <v>12</v>
+        <v>130</v>
       </c>
       <c r="F34" t="s">
         <v>31</v>
@@ -1216,7 +1216,7 @@
         <v>2045</v>
       </c>
       <c r="E35" s="9">
-        <v>16</v>
+        <v>180</v>
       </c>
       <c r="F35" t="s">
         <v>31</v>
@@ -1236,7 +1236,7 @@
         <v>2050</v>
       </c>
       <c r="E36" s="9">
-        <v>20</v>
+        <v>230</v>
       </c>
       <c r="F36" t="s">
         <v>31</v>
@@ -1721,6 +1721,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
@@ -1729,15 +1738,6 @@
     <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1760,6 +1760,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0D1DF3B-E7FC-4762-97D3-E9AC14DDD5AF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -1770,12 +1778,4 @@
     <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/SuppXLS/Scen_NCAP_NUC_NASZ.xlsx
+++ b/SuppXLS/Scen_NCAP_NUC_NASZ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\barte\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF6FB78A-F553-4E36-ADB1-C808727DC916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{646FF761-0F9E-4726-B908-7D9CEED5E438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="37">
   <si>
     <t>~TFM_INS</t>
   </si>
@@ -163,6 +163,9 @@
   </si>
   <si>
     <t>CAP_BND</t>
+  </si>
+  <si>
+    <t>ELE_NEW_NUC_PWR</t>
   </si>
 </sst>
 </file>
@@ -614,8 +617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:P55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="119" zoomScaleNormal="126" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="119" zoomScaleNormal="126" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1290,7 +1293,23 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+      <c r="F40" t="s">
+        <v>36</v>
+      </c>
+    </row>
     <row r="41" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="42" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J42" t="s">
@@ -1721,15 +1740,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
@@ -1738,6 +1748,15 @@
     <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1760,14 +1779,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0D1DF3B-E7FC-4762-97D3-E9AC14DDD5AF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -1778,4 +1789,12 @@
     <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/SuppXLS/Scen_NCAP_NUC_NASZ.xlsx
+++ b/SuppXLS/Scen_NCAP_NUC_NASZ.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\barte\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\studia\gowno na raczynskiego\projekt-majn\Projekt-main\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{646FF761-0F9E-4726-B908-7D9CEED5E438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B93FD5AF-8B46-43C3-A27B-0326104C9894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NCAP_BND" sheetId="1" r:id="rId1"/>
@@ -313,7 +313,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -331,7 +331,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Pakiet Office 2007–2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -369,7 +369,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Pakiet Office 2007–2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -441,7 +441,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Pakiet Office 2007–2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -617,22 +617,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:P55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="119" zoomScaleNormal="126" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+    <sheetView tabSelected="1" zoomScale="119" zoomScaleNormal="126" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.5546875" customWidth="1"/>
-    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" customWidth="1"/>
-    <col min="4" max="4" width="13.5546875" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" customWidth="1"/>
+    <col min="1" max="1" width="3.5703125" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
     <col min="6" max="6" width="30" customWidth="1"/>
     <col min="7" max="11" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:14" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
@@ -641,7 +641,7 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="2:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
@@ -667,7 +667,7 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="2:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:14" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
         <v>8</v>
       </c>
@@ -685,7 +685,7 @@
       </c>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="7" t="s">
         <v>13</v>
       </c>
@@ -696,7 +696,7 @@
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
     </row>
-    <row r="6" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="7" t="s">
         <v>13</v>
       </c>
@@ -707,7 +707,7 @@
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
     </row>
-    <row r="7" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="10" t="s">
         <v>14</v>
       </c>
@@ -725,7 +725,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="10" t="s">
         <v>14</v>
       </c>
@@ -742,7 +742,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="10" t="s">
         <v>14</v>
       </c>
@@ -759,7 +759,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="10" t="s">
         <v>14</v>
       </c>
@@ -776,7 +776,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="10" t="s">
         <v>14</v>
       </c>
@@ -793,7 +793,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>14</v>
       </c>
@@ -804,13 +804,14 @@
         <v>2030</v>
       </c>
       <c r="E12" s="9">
-        <v>13</v>
+        <f>13*3/5</f>
+        <v>7.8</v>
       </c>
       <c r="F12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>14</v>
       </c>
@@ -821,13 +822,14 @@
         <v>2035</v>
       </c>
       <c r="E13" s="9">
-        <v>15</v>
+        <f>15*3/5</f>
+        <v>9</v>
       </c>
       <c r="F13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>14</v>
       </c>
@@ -838,13 +840,14 @@
         <v>2040</v>
       </c>
       <c r="E14" s="9">
-        <v>17</v>
+        <f>17*3/5</f>
+        <v>10.199999999999999</v>
       </c>
       <c r="F14" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>14</v>
       </c>
@@ -855,13 +858,14 @@
         <v>2045</v>
       </c>
       <c r="E15" s="9">
-        <v>19</v>
+        <f>19*3/5</f>
+        <v>11.4</v>
       </c>
       <c r="F15" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>14</v>
       </c>
@@ -872,13 +876,14 @@
         <v>2050</v>
       </c>
       <c r="E16" s="9">
-        <v>22</v>
+        <f>22*3/5</f>
+        <v>13.2</v>
       </c>
       <c r="F16" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>14</v>
       </c>
@@ -889,13 +894,14 @@
         <v>2030</v>
       </c>
       <c r="E17" s="9">
-        <v>8.4</v>
+        <f>8.4*3/5</f>
+        <v>5.0400000000000009</v>
       </c>
       <c r="F17" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>14</v>
       </c>
@@ -906,13 +912,14 @@
         <v>2035</v>
       </c>
       <c r="E18" s="9">
-        <v>12</v>
+        <f>12*3/5</f>
+        <v>7.2</v>
       </c>
       <c r="F18" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>14</v>
       </c>
@@ -923,13 +930,14 @@
         <v>2040</v>
       </c>
       <c r="E19" s="9">
-        <v>18</v>
+        <f>18*3/5</f>
+        <v>10.8</v>
       </c>
       <c r="F19" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>14</v>
       </c>
@@ -940,13 +948,14 @@
         <v>2045</v>
       </c>
       <c r="E20" s="9">
-        <v>25</v>
+        <f>25*3/5</f>
+        <v>15</v>
       </c>
       <c r="F20" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>14</v>
       </c>
@@ -957,13 +966,14 @@
         <v>2050</v>
       </c>
       <c r="E21" s="9">
-        <v>33</v>
+        <f>33*3/5</f>
+        <v>19.8</v>
       </c>
       <c r="F21" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>14</v>
       </c>
@@ -980,7 +990,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>14</v>
       </c>
@@ -997,7 +1007,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>14</v>
       </c>
@@ -1014,7 +1024,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>14</v>
       </c>
@@ -1031,7 +1041,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>14</v>
       </c>
@@ -1048,7 +1058,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>14</v>
       </c>
@@ -1068,7 +1078,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>14</v>
       </c>
@@ -1088,7 +1098,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>14</v>
       </c>
@@ -1108,7 +1118,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>14</v>
       </c>
@@ -1128,7 +1138,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>14</v>
       </c>
@@ -1148,7 +1158,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>14</v>
       </c>
@@ -1159,7 +1169,7 @@
         <v>2030</v>
       </c>
       <c r="E32" s="9">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F32" t="s">
         <v>31</v>
@@ -1168,7 +1178,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>14</v>
       </c>
@@ -1179,7 +1189,8 @@
         <v>2035</v>
       </c>
       <c r="E33" s="9">
-        <v>90</v>
+        <f>90*3/5</f>
+        <v>54</v>
       </c>
       <c r="F33" t="s">
         <v>31</v>
@@ -1188,7 +1199,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>14</v>
       </c>
@@ -1199,7 +1210,8 @@
         <v>2040</v>
       </c>
       <c r="E34" s="9">
-        <v>130</v>
+        <f>130*3/5</f>
+        <v>78</v>
       </c>
       <c r="F34" t="s">
         <v>31</v>
@@ -1208,7 +1220,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>14</v>
       </c>
@@ -1219,7 +1231,8 @@
         <v>2045</v>
       </c>
       <c r="E35" s="9">
-        <v>180</v>
+        <f>180*3/5</f>
+        <v>108</v>
       </c>
       <c r="F35" t="s">
         <v>31</v>
@@ -1228,7 +1241,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>14</v>
       </c>
@@ -1239,7 +1252,8 @@
         <v>2050</v>
       </c>
       <c r="E36" s="9">
-        <v>230</v>
+        <f>230*3/5</f>
+        <v>138</v>
       </c>
       <c r="F36" t="s">
         <v>31</v>
@@ -1248,7 +1262,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="7" t="s">
         <v>15</v>
       </c>
@@ -1259,7 +1273,7 @@
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
     </row>
-    <row r="38" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>6</v>
       </c>
@@ -1276,7 +1290,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="3" t="s">
         <v>6</v>
       </c>
@@ -1293,7 +1307,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="3" t="s">
         <v>6</v>
       </c>
@@ -1310,8 +1324,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J42" t="s">
         <v>19</v>
       </c>
@@ -1334,7 +1348,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="43" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J43" t="s">
         <v>20</v>
       </c>
@@ -1355,7 +1369,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="44" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J44" t="s">
         <v>21</v>
       </c>
@@ -1378,7 +1392,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="K45" s="9" t="s">
         <v>23</v>
       </c>
@@ -1398,7 +1412,7 @@
         <v>28.18181818181818</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="J46" t="s">
         <v>24</v>
       </c>
@@ -1421,7 +1435,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="K47" s="9" t="s">
         <v>23</v>
       </c>
@@ -1441,7 +1455,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="J48" t="s">
         <v>25</v>
       </c>
@@ -1464,7 +1478,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="49" spans="10:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="10:16" x14ac:dyDescent="0.2">
       <c r="K49" s="9" t="s">
         <v>23</v>
       </c>
@@ -1484,7 +1498,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="10:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="10:16" x14ac:dyDescent="0.2">
       <c r="J50" t="s">
         <v>26</v>
       </c>
@@ -1507,7 +1521,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="10:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="10:16" x14ac:dyDescent="0.2">
       <c r="K51" s="9" t="s">
         <v>23</v>
       </c>
@@ -1527,7 +1541,7 @@
         <v>10.909090909090908</v>
       </c>
     </row>
-    <row r="55" spans="10:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="10:16" x14ac:dyDescent="0.2">
       <c r="J55" s="3">
         <f t="shared" ref="J55" si="0">K113</f>
         <v>0</v>
@@ -1545,6 +1559,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100765A2D8ABDD1064B8560F0E0020228D7" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="faba48c57225b8cf4893994d76bae982">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="154c1c0f-2c06-4f37-a5b1-faba3524bf7f" xmlns:ns3="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="653a6a65a0f1497e1436c43ea8aacb76" ns2:_="" ns3:_="">
     <xsd:import namespace="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
@@ -1739,41 +1773,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8DDFBE94-8463-4610-B89B-ED8FC2DD2550}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
-    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1792,9 +1795,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8DDFBE94-8463-4610-B89B-ED8FC2DD2550}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
+    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/SuppXLS/Scen_NCAP_NUC_NASZ.xlsx
+++ b/SuppXLS/Scen_NCAP_NUC_NASZ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\studia\gowno na raczynskiego\projekt-majn\Projekt-main\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B93FD5AF-8B46-43C3-A27B-0326104C9894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ECA3249-932B-4493-ABAA-A7B5FC563464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,30 +32,8 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="37">
   <si>
     <t>~TFM_INS</t>
   </si>
@@ -615,10 +593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:P55"/>
+  <dimension ref="B2:P58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="119" zoomScaleNormal="126" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="119" zoomScaleNormal="126" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -698,66 +676,65 @@
     </row>
     <row r="6" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6">
+        <v>2040</v>
+      </c>
+      <c r="E6" s="9">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7">
+        <v>2045</v>
+      </c>
+      <c r="E7" s="9">
+        <v>35</v>
+      </c>
+      <c r="F7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8">
+        <v>2050</v>
+      </c>
+      <c r="E8" s="9">
+        <v>45</v>
+      </c>
+      <c r="F8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-    </row>
-    <row r="7" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="9">
-        <v>2030</v>
-      </c>
-      <c r="E7" cm="1">
-        <f t="array" ref="E7:E11">TRANSPOSE(L44:P44)</f>
-        <v>13</v>
-      </c>
-      <c r="F7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="9">
-        <v>2035</v>
-      </c>
-      <c r="E8">
-        <v>20</v>
-      </c>
-      <c r="F8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="9">
-        <v>2040</v>
-      </c>
-      <c r="E9">
-        <v>30</v>
-      </c>
-      <c r="F9" t="s">
-        <v>31</v>
-      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
     </row>
     <row r="10" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="10" t="s">
@@ -767,10 +744,10 @@
         <v>35</v>
       </c>
       <c r="D10" s="9">
-        <v>2045</v>
+        <v>2030</v>
       </c>
       <c r="E10">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="F10" t="s">
         <v>31</v>
@@ -784,244 +761,244 @@
         <v>35</v>
       </c>
       <c r="D11" s="9">
-        <v>2050</v>
+        <v>2035</v>
       </c>
       <c r="E11">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="F11" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="12" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
+      <c r="B12" s="10" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="9">
+        <v>2040</v>
+      </c>
+      <c r="E12">
+        <v>17</v>
+      </c>
+      <c r="F12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="9">
+        <v>2045</v>
+      </c>
+      <c r="E13">
+        <v>21</v>
+      </c>
+      <c r="F13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="9">
+        <v>2050</v>
+      </c>
+      <c r="E14">
+        <v>25</v>
+      </c>
+      <c r="F14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15">
         <v>2030</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E15" s="9">
         <f>13*3/5</f>
         <v>7.8</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F15" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13">
+    <row r="16" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16">
         <v>2035</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E16" s="9">
         <f>15*3/5</f>
         <v>9</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F16" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14">
+    <row r="17" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17">
         <v>2040</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E17" s="9">
         <f>17*3/5</f>
         <v>10.199999999999999</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F17" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15">
+    <row r="18" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18">
         <v>2045</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E18" s="9">
         <f>19*3/5</f>
         <v>11.4</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F18" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16">
+    <row r="19" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19">
         <v>2050</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E19" s="9">
         <f>22*3/5</f>
         <v>13.2</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F19" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17">
+    <row r="20" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20">
         <v>2030</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E20" s="9">
         <f>8.4*3/5</f>
         <v>5.0400000000000009</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F20" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18">
+    <row r="21" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21">
         <v>2035</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E21" s="9">
         <f>12*3/5</f>
         <v>7.2</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F21" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19">
+    <row r="22" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22">
         <v>2040</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E22" s="9">
         <f>18*3/5</f>
         <v>10.8</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F22" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20">
+    <row r="23" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23">
         <v>2045</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E23" s="9">
         <f>25*3/5</f>
         <v>15</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F23" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21">
+    <row r="24" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24">
         <v>2050</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E24" s="9">
         <f>33*3/5</f>
         <v>19.8</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F24" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22">
-        <v>2030</v>
-      </c>
-      <c r="E22" s="9">
-        <v>0</v>
-      </c>
-      <c r="F22" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D23">
-        <v>2035</v>
-      </c>
-      <c r="E23" s="9">
-        <v>2</v>
-      </c>
-      <c r="F23" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24">
-        <v>2040</v>
-      </c>
-      <c r="E24" s="9">
-        <v>5</v>
-      </c>
-      <c r="F24" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="25" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1032,10 +1009,10 @@
         <v>35</v>
       </c>
       <c r="D25">
-        <v>2045</v>
+        <v>2030</v>
       </c>
       <c r="E25" s="9">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F25" t="s">
         <v>30</v>
@@ -1049,10 +1026,10 @@
         <v>35</v>
       </c>
       <c r="D26">
-        <v>2050</v>
+        <v>2035</v>
       </c>
       <c r="E26" s="9">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F26" t="s">
         <v>30</v>
@@ -1063,60 +1040,51 @@
         <v>14</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D27">
-        <v>2030</v>
+        <v>2040</v>
       </c>
       <c r="E27" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F27" t="s">
         <v>30</v>
       </c>
-      <c r="G27" t="s">
-        <v>34</v>
-      </c>
     </row>
     <row r="28" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>14</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D28">
-        <v>2035</v>
+        <v>2045</v>
       </c>
       <c r="E28" s="9">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="F28" t="s">
         <v>30</v>
       </c>
-      <c r="G28" t="s">
-        <v>34</v>
-      </c>
     </row>
     <row r="29" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>14</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D29">
-        <v>2040</v>
+        <v>2050</v>
       </c>
       <c r="E29" s="9">
-        <v>200</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
         <v>30</v>
       </c>
-      <c r="G29" t="s">
-        <v>34</v>
-      </c>
     </row>
     <row r="30" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
@@ -1126,10 +1094,10 @@
         <v>33</v>
       </c>
       <c r="D30">
-        <v>2045</v>
+        <v>2030</v>
       </c>
       <c r="E30" s="9">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="F30" t="s">
         <v>30</v>
@@ -1146,10 +1114,10 @@
         <v>33</v>
       </c>
       <c r="D31">
-        <v>2050</v>
+        <v>2035</v>
       </c>
       <c r="E31" s="9">
-        <v>470</v>
+        <v>100</v>
       </c>
       <c r="F31" t="s">
         <v>30</v>
@@ -1166,13 +1134,13 @@
         <v>33</v>
       </c>
       <c r="D32">
-        <v>2030</v>
+        <v>2040</v>
       </c>
       <c r="E32" s="9">
+        <v>200</v>
+      </c>
+      <c r="F32" t="s">
         <v>30</v>
-      </c>
-      <c r="F32" t="s">
-        <v>31</v>
       </c>
       <c r="G32" t="s">
         <v>34</v>
@@ -1186,364 +1154,424 @@
         <v>33</v>
       </c>
       <c r="D33">
+        <v>2045</v>
+      </c>
+      <c r="E33" s="9">
+        <v>350</v>
+      </c>
+      <c r="F33" t="s">
+        <v>30</v>
+      </c>
+      <c r="G33" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34">
+        <v>2050</v>
+      </c>
+      <c r="E34" s="9">
+        <v>470</v>
+      </c>
+      <c r="F34" t="s">
+        <v>30</v>
+      </c>
+      <c r="G34" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D35">
+        <v>2030</v>
+      </c>
+      <c r="E35" s="9">
+        <v>30</v>
+      </c>
+      <c r="F35" t="s">
+        <v>31</v>
+      </c>
+      <c r="G35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D36">
         <v>2035</v>
       </c>
-      <c r="E33" s="9">
+      <c r="E36" s="9">
         <f>90*3/5</f>
         <v>54</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F36" t="s">
         <v>31</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G36" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" t="s">
-        <v>14</v>
-      </c>
-      <c r="C34" s="8" t="s">
+    <row r="37" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D34">
+      <c r="D37">
         <v>2040</v>
       </c>
-      <c r="E34" s="9">
+      <c r="E37" s="9">
         <f>130*3/5</f>
         <v>78</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F37" t="s">
         <v>31</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G37" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" t="s">
-        <v>14</v>
-      </c>
-      <c r="C35" s="8" t="s">
+    <row r="38" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D35">
+      <c r="D38">
         <v>2045</v>
       </c>
-      <c r="E35" s="9">
+      <c r="E38" s="9">
         <f>180*3/5</f>
         <v>108</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F38" t="s">
         <v>31</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G38" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" t="s">
-        <v>14</v>
-      </c>
-      <c r="C36" s="8" t="s">
+    <row r="39" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D36">
+      <c r="D39">
         <v>2050</v>
       </c>
-      <c r="E36" s="9">
+      <c r="E39" s="9">
         <f>230*3/5</f>
         <v>138</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F39" t="s">
         <v>31</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G39" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="7" t="s">
+    <row r="40" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C40" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-    </row>
-    <row r="38" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" t="s">
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+    </row>
+    <row r="41" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C41" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D38">
+      <c r="D41">
         <v>0</v>
       </c>
-      <c r="E38">
+      <c r="E41">
         <v>2</v>
       </c>
-      <c r="F38" s="8" t="s">
+      <c r="F41" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="3" t="s">
+    <row r="42" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C42" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D39">
+      <c r="D42">
         <v>0</v>
       </c>
-      <c r="E39">
+      <c r="E42">
         <v>2</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F42" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="3" t="s">
+    <row r="43" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C43" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D40">
+      <c r="D43">
         <v>0</v>
       </c>
-      <c r="E40">
+      <c r="E43">
         <v>2</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F43" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J42" t="s">
+    <row r="44" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J45" t="s">
         <v>19</v>
       </c>
-      <c r="K42" s="9">
+      <c r="K45" s="9">
         <v>72.8</v>
       </c>
-      <c r="L42" s="9">
+      <c r="L45" s="9">
         <v>77</v>
       </c>
-      <c r="M42" s="9">
+      <c r="M45" s="9">
         <v>82</v>
       </c>
-      <c r="N42" s="9">
+      <c r="N45" s="9">
         <v>90</v>
       </c>
-      <c r="O42" s="9">
+      <c r="O45" s="9">
         <v>97</v>
       </c>
-      <c r="P42" s="9">
+      <c r="P45" s="9">
         <v>110</v>
       </c>
     </row>
-    <row r="43" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J43" t="s">
+    <row r="46" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J46" t="s">
         <v>20</v>
       </c>
-      <c r="K43" s="9"/>
-      <c r="L43" s="9">
+      <c r="K46" s="9"/>
+      <c r="L46" s="9">
         <v>2030</v>
       </c>
-      <c r="M43" s="9">
+      <c r="M46" s="9">
         <v>2035</v>
       </c>
-      <c r="N43" s="9">
+      <c r="N46" s="9">
         <v>2040</v>
       </c>
-      <c r="O43" s="9">
+      <c r="O46" s="9">
         <v>2045</v>
       </c>
-      <c r="P43" s="9">
+      <c r="P46" s="9">
         <v>2050</v>
       </c>
     </row>
-    <row r="44" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J44" t="s">
+    <row r="47" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J47" t="s">
         <v>21</v>
       </c>
-      <c r="K44" s="9" t="s">
+      <c r="K47" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="L44" s="9">
+      <c r="L47" s="9">
         <v>13</v>
       </c>
-      <c r="M44" s="9">
+      <c r="M47" s="9">
         <v>20</v>
       </c>
-      <c r="N44" s="9">
+      <c r="N47" s="9">
         <v>30</v>
       </c>
-      <c r="O44" s="9">
+      <c r="O47" s="9">
         <v>32</v>
       </c>
-      <c r="P44" s="9">
+      <c r="P47" s="9">
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="K45" s="9" t="s">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="K48" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="L45" s="9">
+      <c r="L48" s="9">
         <v>16.883116883116884</v>
       </c>
-      <c r="M45" s="9">
+      <c r="M48" s="9">
         <v>24.390243902439025</v>
       </c>
-      <c r="N45" s="9">
+      <c r="N48" s="9">
         <v>33.333333333333329</v>
       </c>
-      <c r="O45" s="9">
+      <c r="O48" s="9">
         <v>32.989690721649481</v>
       </c>
-      <c r="P45" s="9">
+      <c r="P48" s="9">
         <v>28.18181818181818</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="J46" t="s">
+    <row r="49" spans="10:16" x14ac:dyDescent="0.2">
+      <c r="J49" t="s">
         <v>24</v>
       </c>
-      <c r="K46" s="9" t="s">
+      <c r="K49" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="L46" s="9">
+      <c r="L49" s="9">
         <v>13</v>
       </c>
-      <c r="M46" s="9">
+      <c r="M49" s="9">
         <v>15</v>
       </c>
-      <c r="N46" s="9">
+      <c r="N49" s="9">
         <v>17</v>
       </c>
-      <c r="O46" s="9">
+      <c r="O49" s="9">
         <v>19</v>
       </c>
-      <c r="P46" s="9">
+      <c r="P49" s="9">
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="K47" s="9" t="s">
+    <row r="50" spans="10:16" x14ac:dyDescent="0.2">
+      <c r="K50" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="L47" s="9">
+      <c r="L50" s="9">
         <v>16.883116883116884</v>
       </c>
-      <c r="M47" s="9">
+      <c r="M50" s="9">
         <v>18.292682926829269</v>
       </c>
-      <c r="N47" s="9">
+      <c r="N50" s="9">
         <v>18.888888888888889</v>
       </c>
-      <c r="O47" s="9">
+      <c r="O50" s="9">
         <v>19.587628865979383</v>
       </c>
-      <c r="P47" s="9">
+      <c r="P50" s="9">
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="J48" t="s">
+    <row r="51" spans="10:16" x14ac:dyDescent="0.2">
+      <c r="J51" t="s">
         <v>25</v>
       </c>
-      <c r="K48" s="9" t="s">
+      <c r="K51" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="L48" s="9">
+      <c r="L51" s="9">
         <v>8.4</v>
       </c>
-      <c r="M48" s="9">
+      <c r="M51" s="9">
         <v>12</v>
       </c>
-      <c r="N48" s="9">
+      <c r="N51" s="9">
         <v>18</v>
       </c>
-      <c r="O48" s="9">
+      <c r="O51" s="9">
         <v>25</v>
       </c>
-      <c r="P48" s="9">
+      <c r="P51" s="9">
         <v>33</v>
       </c>
     </row>
-    <row r="49" spans="10:16" x14ac:dyDescent="0.2">
-      <c r="K49" s="9" t="s">
+    <row r="52" spans="10:16" x14ac:dyDescent="0.2">
+      <c r="K52" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="L49" s="9">
+      <c r="L52" s="9">
         <v>10.90909090909091</v>
       </c>
-      <c r="M49" s="9">
+      <c r="M52" s="9">
         <v>14.634146341463413</v>
       </c>
-      <c r="N49" s="9">
+      <c r="N52" s="9">
         <v>20</v>
       </c>
-      <c r="O49" s="9">
+      <c r="O52" s="9">
         <v>25.773195876288657</v>
       </c>
-      <c r="P49" s="9">
+      <c r="P52" s="9">
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="10:16" x14ac:dyDescent="0.2">
-      <c r="J50" t="s">
+    <row r="53" spans="10:16" x14ac:dyDescent="0.2">
+      <c r="J53" t="s">
         <v>26</v>
       </c>
-      <c r="K50" s="9" t="s">
+      <c r="K53" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="L50" s="9">
+      <c r="L53" s="9">
         <v>0</v>
       </c>
-      <c r="M50" s="9">
+      <c r="M53" s="9">
         <v>2</v>
       </c>
-      <c r="N50" s="9">
+      <c r="N53" s="9">
         <v>5</v>
       </c>
-      <c r="O50" s="9">
+      <c r="O53" s="9">
         <v>8</v>
       </c>
-      <c r="P50" s="9">
+      <c r="P53" s="9">
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="10:16" x14ac:dyDescent="0.2">
-      <c r="K51" s="9" t="s">
+    <row r="54" spans="10:16" x14ac:dyDescent="0.2">
+      <c r="K54" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="L51" s="9">
+      <c r="L54" s="9">
         <v>0</v>
       </c>
-      <c r="M51" s="9">
+      <c r="M54" s="9">
         <v>2.4390243902439024</v>
       </c>
-      <c r="N51" s="9">
+      <c r="N54" s="9">
         <v>5.5555555555555554</v>
       </c>
-      <c r="O51" s="9">
+      <c r="O54" s="9">
         <v>8.2474226804123703</v>
       </c>
-      <c r="P51" s="9">
+      <c r="P54" s="9">
         <v>10.909090909090908</v>
       </c>
     </row>
-    <row r="55" spans="10:16" x14ac:dyDescent="0.2">
-      <c r="J55" s="3">
-        <f t="shared" ref="J55" si="0">K113</f>
+    <row r="58" spans="10:16" x14ac:dyDescent="0.2">
+      <c r="J58" s="3">
+        <f t="shared" ref="J58" si="0">K116</f>
         <v>0</v>
       </c>
     </row>
@@ -1559,26 +1587,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100765A2D8ABDD1064B8560F0E0020228D7" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="faba48c57225b8cf4893994d76bae982">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="154c1c0f-2c06-4f37-a5b1-faba3524bf7f" xmlns:ns3="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="653a6a65a0f1497e1436c43ea8aacb76" ns2:_="" ns3:_="">
     <xsd:import namespace="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
@@ -1773,10 +1781,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8DDFBE94-8463-4610-B89B-ED8FC2DD2550}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
+    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1795,20 +1834,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8DDFBE94-8463-4610-B89B-ED8FC2DD2550}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
-    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/SuppXLS/Scen_NCAP_NUC_NASZ.xlsx
+++ b/SuppXLS/Scen_NCAP_NUC_NASZ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\studia\gowno na raczynskiego\projekt-majn\Projekt-main\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ECA3249-932B-4493-ABAA-A7B5FC563464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD02FE31-55E1-4E2E-B13E-1A883AAB7629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="37">
   <si>
     <t>~TFM_INS</t>
   </si>
@@ -593,10 +593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:P58"/>
+  <dimension ref="B2:P65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="119" zoomScaleNormal="126" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="119" zoomScaleNormal="126" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -682,10 +682,10 @@
         <v>35</v>
       </c>
       <c r="D6">
-        <v>2040</v>
+        <v>2030</v>
       </c>
       <c r="E6" s="9">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -699,10 +699,10 @@
         <v>35</v>
       </c>
       <c r="D7">
-        <v>2045</v>
+        <v>2035</v>
       </c>
       <c r="E7" s="9">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s">
         <v>28</v>
@@ -716,10 +716,10 @@
         <v>35</v>
       </c>
       <c r="D8">
-        <v>2050</v>
+        <v>2040</v>
       </c>
       <c r="E8" s="9">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -727,851 +727,970 @@
     </row>
     <row r="9" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9">
+        <v>2045</v>
+      </c>
+      <c r="E9" s="9">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10">
+        <v>2050</v>
+      </c>
+      <c r="E10" s="9">
+        <v>14</v>
+      </c>
+      <c r="F10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11">
+        <v>2030</v>
+      </c>
+      <c r="E11" s="9">
+        <v>6</v>
+      </c>
+      <c r="F11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12">
+        <v>2035</v>
+      </c>
+      <c r="E12" s="9">
+        <v>8</v>
+      </c>
+      <c r="F12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13">
+        <v>2040</v>
+      </c>
+      <c r="E13" s="9">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14">
+        <v>2045</v>
+      </c>
+      <c r="E14" s="9">
+        <v>16</v>
+      </c>
+      <c r="F14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15">
+        <v>2050</v>
+      </c>
+      <c r="E15" s="9">
+        <v>21</v>
+      </c>
+      <c r="F15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C16" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-    </row>
-    <row r="10" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="9">
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="9">
         <v>2030</v>
       </c>
-      <c r="E10">
+      <c r="E17">
         <v>10</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="9">
+    <row r="18" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="9">
         <v>2035</v>
       </c>
-      <c r="E11">
+      <c r="E18">
         <v>13</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F18" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="9">
+    <row r="19" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="9">
         <v>2040</v>
       </c>
-      <c r="E12">
+      <c r="E19">
         <v>17</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F19" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="9">
+    <row r="20" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="9">
         <v>2045</v>
       </c>
-      <c r="E13">
+      <c r="E20">
         <v>21</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F20" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="9">
+    <row r="21" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="9">
         <v>2050</v>
       </c>
-      <c r="E14">
+      <c r="E21">
         <v>25</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F21" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15">
+    <row r="22" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22">
         <v>2030</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E22" s="9">
         <f>13*3/5</f>
         <v>7.8</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F22" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16">
+    <row r="23" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23">
         <v>2035</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E23" s="9">
         <f>15*3/5</f>
         <v>9</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F23" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17">
+    <row r="24" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24">
         <v>2040</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E24" s="9">
         <f>17*3/5</f>
         <v>10.199999999999999</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F24" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18">
+    <row r="25" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25">
         <v>2045</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E25" s="9">
         <f>19*3/5</f>
         <v>11.4</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F25" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19">
+    <row r="26" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26">
         <v>2050</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E26" s="9">
         <f>22*3/5</f>
         <v>13.2</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F26" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20">
+    <row r="27" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27">
         <v>2030</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E27" s="9">
         <f>8.4*3/5</f>
         <v>5.0400000000000009</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F27" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21">
+    <row r="28" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28">
         <v>2035</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E28" s="9">
         <f>12*3/5</f>
         <v>7.2</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F28" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22">
+    <row r="29" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29">
         <v>2040</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E29" s="9">
         <f>18*3/5</f>
         <v>10.8</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F29" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D23">
+    <row r="30" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30">
         <v>2045</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E30" s="9">
         <f>25*3/5</f>
         <v>15</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24">
+    <row r="31" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31">
         <v>2050</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E31" s="9">
         <f>33*3/5</f>
         <v>19.8</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F31" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D25">
+    <row r="32" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32">
         <v>2030</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E32" s="9">
         <v>0</v>
-      </c>
-      <c r="F25" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D26">
-        <v>2035</v>
-      </c>
-      <c r="E26" s="9">
-        <v>2</v>
-      </c>
-      <c r="F26" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D27">
-        <v>2040</v>
-      </c>
-      <c r="E27" s="9">
-        <v>5</v>
-      </c>
-      <c r="F27" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D28">
-        <v>2045</v>
-      </c>
-      <c r="E28" s="9">
-        <v>8</v>
-      </c>
-      <c r="F28" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D29">
-        <v>2050</v>
-      </c>
-      <c r="E29" s="9">
-        <v>12</v>
-      </c>
-      <c r="F29" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
-        <v>14</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30">
-        <v>2030</v>
-      </c>
-      <c r="E30" s="9">
-        <v>0</v>
-      </c>
-      <c r="F30" t="s">
-        <v>30</v>
-      </c>
-      <c r="G30" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
-        <v>14</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D31">
-        <v>2035</v>
-      </c>
-      <c r="E31" s="9">
-        <v>100</v>
-      </c>
-      <c r="F31" t="s">
-        <v>30</v>
-      </c>
-      <c r="G31" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
-        <v>14</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D32">
-        <v>2040</v>
-      </c>
-      <c r="E32" s="9">
-        <v>200</v>
       </c>
       <c r="F32" t="s">
         <v>30</v>
       </c>
-      <c r="G32" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>14</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D33">
-        <v>2045</v>
+        <v>2035</v>
       </c>
       <c r="E33" s="9">
-        <v>350</v>
+        <v>2</v>
       </c>
       <c r="F33" t="s">
         <v>30</v>
       </c>
-      <c r="G33" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="34" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>14</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D34">
-        <v>2050</v>
+        <v>2040</v>
       </c>
       <c r="E34" s="9">
-        <v>470</v>
+        <v>5</v>
       </c>
       <c r="F34" t="s">
         <v>30</v>
       </c>
-      <c r="G34" t="s">
+    </row>
+    <row r="35" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D35">
+        <v>2045</v>
+      </c>
+      <c r="E35" s="9">
+        <v>8</v>
+      </c>
+      <c r="F35" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D36">
+        <v>2050</v>
+      </c>
+      <c r="E36" s="9">
+        <v>12</v>
+      </c>
+      <c r="F36" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D37">
+        <v>2030</v>
+      </c>
+      <c r="E37" s="9">
+        <v>0</v>
+      </c>
+      <c r="F37" t="s">
+        <v>30</v>
+      </c>
+      <c r="G37" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" t="s">
-        <v>14</v>
-      </c>
-      <c r="C35" s="8" t="s">
+    <row r="38" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D35">
+      <c r="D38">
+        <v>2035</v>
+      </c>
+      <c r="E38" s="9">
+        <v>100</v>
+      </c>
+      <c r="F38" t="s">
+        <v>30</v>
+      </c>
+      <c r="G38" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D39">
+        <v>2040</v>
+      </c>
+      <c r="E39" s="9">
+        <v>200</v>
+      </c>
+      <c r="F39" t="s">
+        <v>30</v>
+      </c>
+      <c r="G39" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D40">
+        <v>2045</v>
+      </c>
+      <c r="E40" s="9">
+        <v>350</v>
+      </c>
+      <c r="F40" t="s">
+        <v>30</v>
+      </c>
+      <c r="G40" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D41">
+        <v>2050</v>
+      </c>
+      <c r="E41" s="9">
+        <v>470</v>
+      </c>
+      <c r="F41" t="s">
+        <v>30</v>
+      </c>
+      <c r="G41" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D42">
         <v>2030</v>
       </c>
-      <c r="E35" s="9">
+      <c r="E42" s="9">
         <v>30</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F42" t="s">
         <v>31</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G42" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" t="s">
-        <v>14</v>
-      </c>
-      <c r="C36" s="8" t="s">
+    <row r="43" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D36">
+      <c r="D43">
         <v>2035</v>
       </c>
-      <c r="E36" s="9">
+      <c r="E43" s="9">
         <f>90*3/5</f>
         <v>54</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F43" t="s">
         <v>31</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G43" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" t="s">
-        <v>14</v>
-      </c>
-      <c r="C37" s="8" t="s">
+    <row r="44" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D37">
+      <c r="D44">
         <v>2040</v>
       </c>
-      <c r="E37" s="9">
+      <c r="E44" s="9">
         <f>130*3/5</f>
         <v>78</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F44" t="s">
         <v>31</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G44" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" t="s">
-        <v>14</v>
-      </c>
-      <c r="C38" s="8" t="s">
+    <row r="45" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D38">
+      <c r="D45">
         <v>2045</v>
       </c>
-      <c r="E38" s="9">
+      <c r="E45" s="9">
         <f>180*3/5</f>
         <v>108</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F45" t="s">
         <v>31</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G45" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" t="s">
-        <v>14</v>
-      </c>
-      <c r="C39" s="8" t="s">
+    <row r="46" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D39">
+      <c r="D46">
         <v>2050</v>
       </c>
-      <c r="E39" s="9">
+      <c r="E46" s="9">
         <f>230*3/5</f>
         <v>138</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F46" t="s">
         <v>31</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G46" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="7" t="s">
+    <row r="47" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C47" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-    </row>
-    <row r="41" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" t="s">
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+    </row>
+    <row r="48" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
         <v>6</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C48" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D41">
+      <c r="D48">
         <v>0</v>
       </c>
-      <c r="E41">
+      <c r="E48">
         <v>2</v>
       </c>
-      <c r="F41" s="8" t="s">
+      <c r="F48" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="3" t="s">
+    <row r="49" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="C49" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D42">
+      <c r="D49">
         <v>0</v>
       </c>
-      <c r="E42">
+      <c r="E49">
         <v>2</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F49" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="3" t="s">
+    <row r="50" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C50" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D43">
+      <c r="D50">
         <v>0</v>
       </c>
-      <c r="E43">
+      <c r="E50">
         <v>2</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F50" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J45" t="s">
+    <row r="51" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J52" t="s">
         <v>19</v>
       </c>
-      <c r="K45" s="9">
+      <c r="K52" s="9">
         <v>72.8</v>
       </c>
-      <c r="L45" s="9">
+      <c r="L52" s="9">
         <v>77</v>
       </c>
-      <c r="M45" s="9">
+      <c r="M52" s="9">
         <v>82</v>
       </c>
-      <c r="N45" s="9">
+      <c r="N52" s="9">
         <v>90</v>
       </c>
-      <c r="O45" s="9">
+      <c r="O52" s="9">
         <v>97</v>
       </c>
-      <c r="P45" s="9">
+      <c r="P52" s="9">
         <v>110</v>
       </c>
     </row>
-    <row r="46" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J46" t="s">
+    <row r="53" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J53" t="s">
         <v>20</v>
       </c>
-      <c r="K46" s="9"/>
-      <c r="L46" s="9">
+      <c r="K53" s="9"/>
+      <c r="L53" s="9">
         <v>2030</v>
       </c>
-      <c r="M46" s="9">
+      <c r="M53" s="9">
         <v>2035</v>
       </c>
-      <c r="N46" s="9">
+      <c r="N53" s="9">
         <v>2040</v>
       </c>
-      <c r="O46" s="9">
+      <c r="O53" s="9">
         <v>2045</v>
       </c>
-      <c r="P46" s="9">
+      <c r="P53" s="9">
         <v>2050</v>
       </c>
     </row>
-    <row r="47" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J47" t="s">
+    <row r="54" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J54" t="s">
         <v>21</v>
       </c>
-      <c r="K47" s="9" t="s">
+      <c r="K54" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="L47" s="9">
+      <c r="L54" s="9">
         <v>13</v>
       </c>
-      <c r="M47" s="9">
+      <c r="M54" s="9">
         <v>20</v>
       </c>
-      <c r="N47" s="9">
+      <c r="N54" s="9">
         <v>30</v>
       </c>
-      <c r="O47" s="9">
+      <c r="O54" s="9">
         <v>32</v>
       </c>
-      <c r="P47" s="9">
+      <c r="P54" s="9">
         <v>31</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="K48" s="9" t="s">
+    <row r="55" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="K55" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="L48" s="9">
+      <c r="L55" s="9">
         <v>16.883116883116884</v>
       </c>
-      <c r="M48" s="9">
+      <c r="M55" s="9">
         <v>24.390243902439025</v>
       </c>
-      <c r="N48" s="9">
+      <c r="N55" s="9">
         <v>33.333333333333329</v>
       </c>
-      <c r="O48" s="9">
+      <c r="O55" s="9">
         <v>32.989690721649481</v>
       </c>
-      <c r="P48" s="9">
+      <c r="P55" s="9">
         <v>28.18181818181818</v>
       </c>
     </row>
-    <row r="49" spans="10:16" x14ac:dyDescent="0.2">
-      <c r="J49" t="s">
+    <row r="56" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="J56" t="s">
         <v>24</v>
       </c>
-      <c r="K49" s="9" t="s">
+      <c r="K56" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="L49" s="9">
+      <c r="L56" s="9">
         <v>13</v>
       </c>
-      <c r="M49" s="9">
+      <c r="M56" s="9">
         <v>15</v>
       </c>
-      <c r="N49" s="9">
+      <c r="N56" s="9">
         <v>17</v>
       </c>
-      <c r="O49" s="9">
+      <c r="O56" s="9">
         <v>19</v>
       </c>
-      <c r="P49" s="9">
+      <c r="P56" s="9">
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="10:16" x14ac:dyDescent="0.2">
-      <c r="K50" s="9" t="s">
+    <row r="57" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="K57" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="L50" s="9">
+      <c r="L57" s="9">
         <v>16.883116883116884</v>
       </c>
-      <c r="M50" s="9">
+      <c r="M57" s="9">
         <v>18.292682926829269</v>
       </c>
-      <c r="N50" s="9">
+      <c r="N57" s="9">
         <v>18.888888888888889</v>
       </c>
-      <c r="O50" s="9">
+      <c r="O57" s="9">
         <v>19.587628865979383</v>
       </c>
-      <c r="P50" s="9">
+      <c r="P57" s="9">
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="10:16" x14ac:dyDescent="0.2">
-      <c r="J51" t="s">
+    <row r="58" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="J58" t="s">
         <v>25</v>
       </c>
-      <c r="K51" s="9" t="s">
+      <c r="K58" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="L51" s="9">
+      <c r="L58" s="9">
         <v>8.4</v>
       </c>
-      <c r="M51" s="9">
+      <c r="M58" s="9">
         <v>12</v>
       </c>
-      <c r="N51" s="9">
+      <c r="N58" s="9">
         <v>18</v>
       </c>
-      <c r="O51" s="9">
+      <c r="O58" s="9">
         <v>25</v>
       </c>
-      <c r="P51" s="9">
+      <c r="P58" s="9">
         <v>33</v>
       </c>
     </row>
-    <row r="52" spans="10:16" x14ac:dyDescent="0.2">
-      <c r="K52" s="9" t="s">
+    <row r="59" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="K59" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="L52" s="9">
+      <c r="L59" s="9">
         <v>10.90909090909091</v>
       </c>
-      <c r="M52" s="9">
+      <c r="M59" s="9">
         <v>14.634146341463413</v>
       </c>
-      <c r="N52" s="9">
+      <c r="N59" s="9">
         <v>20</v>
       </c>
-      <c r="O52" s="9">
+      <c r="O59" s="9">
         <v>25.773195876288657</v>
       </c>
-      <c r="P52" s="9">
+      <c r="P59" s="9">
         <v>30</v>
       </c>
     </row>
-    <row r="53" spans="10:16" x14ac:dyDescent="0.2">
-      <c r="J53" t="s">
+    <row r="60" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="J60" t="s">
         <v>26</v>
       </c>
-      <c r="K53" s="9" t="s">
+      <c r="K60" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="L53" s="9">
+      <c r="L60" s="9">
         <v>0</v>
       </c>
-      <c r="M53" s="9">
+      <c r="M60" s="9">
         <v>2</v>
       </c>
-      <c r="N53" s="9">
+      <c r="N60" s="9">
         <v>5</v>
       </c>
-      <c r="O53" s="9">
+      <c r="O60" s="9">
         <v>8</v>
       </c>
-      <c r="P53" s="9">
+      <c r="P60" s="9">
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="10:16" x14ac:dyDescent="0.2">
-      <c r="K54" s="9" t="s">
+    <row r="61" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="K61" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="L54" s="9">
+      <c r="L61" s="9">
         <v>0</v>
       </c>
-      <c r="M54" s="9">
+      <c r="M61" s="9">
         <v>2.4390243902439024</v>
       </c>
-      <c r="N54" s="9">
+      <c r="N61" s="9">
         <v>5.5555555555555554</v>
       </c>
-      <c r="O54" s="9">
+      <c r="O61" s="9">
         <v>8.2474226804123703</v>
       </c>
-      <c r="P54" s="9">
+      <c r="P61" s="9">
         <v>10.909090909090908</v>
       </c>
     </row>
-    <row r="58" spans="10:16" x14ac:dyDescent="0.2">
-      <c r="J58" s="3">
-        <f t="shared" ref="J58" si="0">K116</f>
+    <row r="65" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J65" s="3">
+        <f t="shared" ref="J65" si="0">K123</f>
         <v>0</v>
       </c>
     </row>
@@ -1587,6 +1706,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100765A2D8ABDD1064B8560F0E0020228D7" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="faba48c57225b8cf4893994d76bae982">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="154c1c0f-2c06-4f37-a5b1-faba3524bf7f" xmlns:ns3="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="653a6a65a0f1497e1436c43ea8aacb76" ns2:_="" ns3:_="">
     <xsd:import namespace="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
@@ -1781,17 +1911,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1802,6 +1921,19 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0D1DF3B-E7FC-4762-97D3-E9AC14DDD5AF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="96cf5878-74d7-460f-a445-eb4c85d99a58"/>
+    <ds:schemaRef ds:uri="833e474d-e424-4496-95f1-98e7780be11a"/>
+    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
+    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8DDFBE94-8463-4610-B89B-ED8FC2DD2550}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1820,19 +1952,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0D1DF3B-E7FC-4762-97D3-E9AC14DDD5AF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="96cf5878-74d7-460f-a445-eb4c85d99a58"/>
-    <ds:schemaRef ds:uri="833e474d-e424-4496-95f1-98e7780be11a"/>
-    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
-    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
   <ds:schemaRefs>

--- a/SuppXLS/Scen_NCAP_NUC_NASZ.xlsx
+++ b/SuppXLS/Scen_NCAP_NUC_NASZ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\studia\gowno na raczynskiego\projekt-majn\Projekt-main\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD02FE31-55E1-4E2E-B13E-1A883AAB7629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CE15545-3119-458D-9288-70229460C00F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -595,8 +595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:P65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="119" zoomScaleNormal="126" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="119" zoomScaleNormal="126" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1236,7 +1236,7 @@
         <v>2035</v>
       </c>
       <c r="E38" s="9">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="F38" t="s">
         <v>30</v>
@@ -1256,7 +1256,7 @@
         <v>2040</v>
       </c>
       <c r="E39" s="9">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="F39" t="s">
         <v>30</v>
@@ -1276,7 +1276,7 @@
         <v>2045</v>
       </c>
       <c r="E40" s="9">
-        <v>350</v>
+        <v>40</v>
       </c>
       <c r="F40" t="s">
         <v>30</v>
@@ -1296,7 +1296,7 @@
         <v>2050</v>
       </c>
       <c r="E41" s="9">
-        <v>470</v>
+        <v>50</v>
       </c>
       <c r="F41" t="s">
         <v>30</v>
@@ -1316,7 +1316,7 @@
         <v>2030</v>
       </c>
       <c r="E42" s="9">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F42" t="s">
         <v>31</v>
@@ -1336,8 +1336,7 @@
         <v>2035</v>
       </c>
       <c r="E43" s="9">
-        <f>90*3/5</f>
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="F43" t="s">
         <v>31</v>
@@ -1357,8 +1356,7 @@
         <v>2040</v>
       </c>
       <c r="E44" s="9">
-        <f>130*3/5</f>
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="F44" t="s">
         <v>31</v>
@@ -1378,8 +1376,7 @@
         <v>2045</v>
       </c>
       <c r="E45" s="9">
-        <f>180*3/5</f>
-        <v>108</v>
+        <v>35</v>
       </c>
       <c r="F45" t="s">
         <v>31</v>
@@ -1399,8 +1396,7 @@
         <v>2050</v>
       </c>
       <c r="E46" s="9">
-        <f>230*3/5</f>
-        <v>138</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
         <v>31</v>
@@ -1706,17 +1702,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100765A2D8ABDD1064B8560F0E0020228D7" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="faba48c57225b8cf4893994d76bae982">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="154c1c0f-2c06-4f37-a5b1-faba3524bf7f" xmlns:ns3="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="653a6a65a0f1497e1436c43ea8aacb76" ns2:_="" ns3:_="">
     <xsd:import namespace="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
@@ -1911,6 +1896,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1921,19 +1917,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0D1DF3B-E7FC-4762-97D3-E9AC14DDD5AF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="96cf5878-74d7-460f-a445-eb4c85d99a58"/>
-    <ds:schemaRef ds:uri="833e474d-e424-4496-95f1-98e7780be11a"/>
-    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
-    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8DDFBE94-8463-4610-B89B-ED8FC2DD2550}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1952,6 +1935,19 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0D1DF3B-E7FC-4762-97D3-E9AC14DDD5AF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="96cf5878-74d7-460f-a445-eb4c85d99a58"/>
+    <ds:schemaRef ds:uri="833e474d-e424-4496-95f1-98e7780be11a"/>
+    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
+    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
   <ds:schemaRefs>

--- a/SuppXLS/Scen_NCAP_NUC_NASZ.xlsx
+++ b/SuppXLS/Scen_NCAP_NUC_NASZ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\studia\gowno na raczynskiego\projekt-majn\Projekt-main\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CE15545-3119-458D-9288-70229460C00F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62926BD0-EC48-491D-A26E-9146F6EE734D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="37">
   <si>
     <t>~TFM_INS</t>
   </si>
@@ -593,10 +593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:P65"/>
+  <dimension ref="B2:P55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="119" zoomScaleNormal="126" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="119" zoomScaleNormal="126" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -676,271 +676,281 @@
     </row>
     <row r="6" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6">
+        <v>13</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="9">
         <v>2030</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="9">
+        <v>2035</v>
+      </c>
+      <c r="E8">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="9">
+        <v>2040</v>
+      </c>
+      <c r="E9">
+        <v>17</v>
+      </c>
+      <c r="F9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="9">
+        <v>2045</v>
+      </c>
+      <c r="E10">
+        <v>21</v>
+      </c>
+      <c r="F10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="9">
+        <v>2050</v>
+      </c>
+      <c r="E11">
+        <v>25</v>
+      </c>
+      <c r="F11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12">
+        <v>2030</v>
+      </c>
+      <c r="E12" s="9">
+        <f>13*3/5</f>
+        <v>7.8</v>
+      </c>
+      <c r="F12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13">
+        <v>2035</v>
+      </c>
+      <c r="E13" s="9">
+        <f>15*3/5</f>
         <v>9</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7">
+    <row r="14" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14">
+        <v>2040</v>
+      </c>
+      <c r="E14" s="9">
+        <f>17*3/5</f>
+        <v>10.199999999999999</v>
+      </c>
+      <c r="F14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15">
+        <v>2045</v>
+      </c>
+      <c r="E15" s="9">
+        <f>19*3/5</f>
+        <v>11.4</v>
+      </c>
+      <c r="F15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16">
+        <v>2050</v>
+      </c>
+      <c r="E16" s="9">
+        <f>22*3/5</f>
+        <v>13.2</v>
+      </c>
+      <c r="F16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17">
+        <v>2030</v>
+      </c>
+      <c r="E17" s="9">
+        <f>8.4*3/5</f>
+        <v>5.0400000000000009</v>
+      </c>
+      <c r="F17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18">
         <v>2035</v>
       </c>
-      <c r="E7" s="9">
-        <v>10</v>
-      </c>
-      <c r="F7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8">
+      <c r="E18" s="9">
+        <f>12*3/5</f>
+        <v>7.2</v>
+      </c>
+      <c r="F18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19">
         <v>2040</v>
       </c>
-      <c r="E8" s="9">
-        <v>11</v>
-      </c>
-      <c r="F8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9">
+      <c r="E19" s="9">
+        <f>18*3/5</f>
+        <v>10.8</v>
+      </c>
+      <c r="F19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20">
         <v>2045</v>
       </c>
-      <c r="E9" s="9">
-        <v>12</v>
-      </c>
-      <c r="F9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10">
+      <c r="E20" s="9">
+        <f>25*3/5</f>
+        <v>15</v>
+      </c>
+      <c r="F20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21">
         <v>2050</v>
       </c>
-      <c r="E10" s="9">
-        <v>14</v>
-      </c>
-      <c r="F10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11">
-        <v>2030</v>
-      </c>
-      <c r="E11" s="9">
-        <v>6</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="E21" s="9">
+        <f>33*3/5</f>
+        <v>19.8</v>
+      </c>
+      <c r="F21" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12">
-        <v>2035</v>
-      </c>
-      <c r="E12" s="9">
-        <v>8</v>
-      </c>
-      <c r="F12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13">
-        <v>2040</v>
-      </c>
-      <c r="E13" s="9">
-        <v>12</v>
-      </c>
-      <c r="F13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14">
-        <v>2045</v>
-      </c>
-      <c r="E14" s="9">
-        <v>16</v>
-      </c>
-      <c r="F14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15">
-        <v>2050</v>
-      </c>
-      <c r="E15" s="9">
-        <v>21</v>
-      </c>
-      <c r="F15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-    </row>
-    <row r="17" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="9">
-        <v>2030</v>
-      </c>
-      <c r="E17">
-        <v>10</v>
-      </c>
-      <c r="F17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="9">
-        <v>2035</v>
-      </c>
-      <c r="E18">
-        <v>13</v>
-      </c>
-      <c r="F18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="9">
-        <v>2040</v>
-      </c>
-      <c r="E19">
-        <v>17</v>
-      </c>
-      <c r="F19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="9">
-        <v>2045</v>
-      </c>
-      <c r="E20">
-        <v>21</v>
-      </c>
-      <c r="F20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="9">
-        <v>2050</v>
-      </c>
-      <c r="E21">
-        <v>25</v>
-      </c>
-      <c r="F21" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>14</v>
       </c>
@@ -951,14 +961,13 @@
         <v>2030</v>
       </c>
       <c r="E22" s="9">
-        <f>13*3/5</f>
-        <v>7.8</v>
+        <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>14</v>
       </c>
@@ -969,14 +978,13 @@
         <v>2035</v>
       </c>
       <c r="E23" s="9">
-        <f>15*3/5</f>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F23" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>14</v>
       </c>
@@ -987,14 +995,13 @@
         <v>2040</v>
       </c>
       <c r="E24" s="9">
-        <f>17*3/5</f>
-        <v>10.199999999999999</v>
+        <v>5</v>
       </c>
       <c r="F24" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>14</v>
       </c>
@@ -1005,14 +1012,13 @@
         <v>2045</v>
       </c>
       <c r="E25" s="9">
-        <f>19*3/5</f>
-        <v>11.4</v>
+        <v>8</v>
       </c>
       <c r="F25" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>14</v>
       </c>
@@ -1023,670 +1029,494 @@
         <v>2050</v>
       </c>
       <c r="E26" s="9">
-        <f>22*3/5</f>
-        <v>13.2</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>14</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D27">
         <v>2030</v>
       </c>
       <c r="E27" s="9">
-        <f>8.4*3/5</f>
-        <v>5.0400000000000009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="G27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>14</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D28">
         <v>2035</v>
       </c>
       <c r="E28" s="9">
-        <f>12*3/5</f>
-        <v>7.2</v>
+        <v>25</v>
       </c>
       <c r="F28" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="G28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>14</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D29">
         <v>2040</v>
       </c>
       <c r="E29" s="9">
-        <f>18*3/5</f>
-        <v>10.8</v>
+        <v>30</v>
       </c>
       <c r="F29" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="G29" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>14</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D30">
         <v>2045</v>
       </c>
       <c r="E30" s="9">
-        <f>25*3/5</f>
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="F30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="G30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>14</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D31">
         <v>2050</v>
       </c>
       <c r="E31" s="9">
-        <f>33*3/5</f>
-        <v>19.8</v>
+        <v>50</v>
       </c>
       <c r="F31" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="G31" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>14</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D32">
         <v>2030</v>
       </c>
       <c r="E32" s="9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="G32" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>14</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D33">
         <v>2035</v>
       </c>
       <c r="E33" s="9">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="F33" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="G33" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>14</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D34">
         <v>2040</v>
       </c>
       <c r="E34" s="9">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="F34" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="G34" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>14</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D35">
         <v>2045</v>
       </c>
       <c r="E35" s="9">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="F35" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="G35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>14</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D36">
         <v>2050</v>
       </c>
       <c r="E36" s="9">
+        <v>45</v>
+      </c>
+      <c r="F36" t="s">
+        <v>31</v>
+      </c>
+      <c r="G36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+    </row>
+    <row r="38" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
+      </c>
+      <c r="F38" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F36" t="s">
+    </row>
+    <row r="39" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+      <c r="F39" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+      <c r="F40" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J42" t="s">
+        <v>19</v>
+      </c>
+      <c r="K42" s="9">
+        <v>72.8</v>
+      </c>
+      <c r="L42" s="9">
+        <v>77</v>
+      </c>
+      <c r="M42" s="9">
+        <v>82</v>
+      </c>
+      <c r="N42" s="9">
+        <v>90</v>
+      </c>
+      <c r="O42" s="9">
+        <v>97</v>
+      </c>
+      <c r="P42" s="9">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J43" t="s">
+        <v>20</v>
+      </c>
+      <c r="K43" s="9"/>
+      <c r="L43" s="9">
+        <v>2030</v>
+      </c>
+      <c r="M43" s="9">
+        <v>2035</v>
+      </c>
+      <c r="N43" s="9">
+        <v>2040</v>
+      </c>
+      <c r="O43" s="9">
+        <v>2045</v>
+      </c>
+      <c r="P43" s="9">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J44" t="s">
+        <v>21</v>
+      </c>
+      <c r="K44" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L44" s="9">
+        <v>13</v>
+      </c>
+      <c r="M44" s="9">
+        <v>20</v>
+      </c>
+      <c r="N44" s="9">
         <v>30</v>
       </c>
-    </row>
-    <row r="37" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" t="s">
-        <v>14</v>
-      </c>
-      <c r="C37" s="8" t="s">
+      <c r="O44" s="9">
+        <v>32</v>
+      </c>
+      <c r="P44" s="9">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="K45" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L45" s="9">
+        <v>16.883116883116884</v>
+      </c>
+      <c r="M45" s="9">
+        <v>24.390243902439025</v>
+      </c>
+      <c r="N45" s="9">
+        <v>33.333333333333329</v>
+      </c>
+      <c r="O45" s="9">
+        <v>32.989690721649481</v>
+      </c>
+      <c r="P45" s="9">
+        <v>28.18181818181818</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="J46" t="s">
+        <v>24</v>
+      </c>
+      <c r="K46" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L46" s="9">
+        <v>13</v>
+      </c>
+      <c r="M46" s="9">
+        <v>15</v>
+      </c>
+      <c r="N46" s="9">
+        <v>17</v>
+      </c>
+      <c r="O46" s="9">
+        <v>19</v>
+      </c>
+      <c r="P46" s="9">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="K47" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L47" s="9">
+        <v>16.883116883116884</v>
+      </c>
+      <c r="M47" s="9">
+        <v>18.292682926829269</v>
+      </c>
+      <c r="N47" s="9">
+        <v>18.888888888888889</v>
+      </c>
+      <c r="O47" s="9">
+        <v>19.587628865979383</v>
+      </c>
+      <c r="P47" s="9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="J48" t="s">
+        <v>25</v>
+      </c>
+      <c r="K48" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L48" s="9">
+        <v>8.4</v>
+      </c>
+      <c r="M48" s="9">
+        <v>12</v>
+      </c>
+      <c r="N48" s="9">
+        <v>18</v>
+      </c>
+      <c r="O48" s="9">
+        <v>25</v>
+      </c>
+      <c r="P48" s="9">
         <v>33</v>
       </c>
-      <c r="D37">
-        <v>2030</v>
-      </c>
-      <c r="E37" s="9">
+    </row>
+    <row r="49" spans="10:16" x14ac:dyDescent="0.2">
+      <c r="K49" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L49" s="9">
+        <v>10.90909090909091</v>
+      </c>
+      <c r="M49" s="9">
+        <v>14.634146341463413</v>
+      </c>
+      <c r="N49" s="9">
+        <v>20</v>
+      </c>
+      <c r="O49" s="9">
+        <v>25.773195876288657</v>
+      </c>
+      <c r="P49" s="9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="10:16" x14ac:dyDescent="0.2">
+      <c r="J50" t="s">
+        <v>26</v>
+      </c>
+      <c r="K50" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L50" s="9">
         <v>0</v>
       </c>
-      <c r="F37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G37" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" t="s">
-        <v>14</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D38">
-        <v>2035</v>
-      </c>
-      <c r="E38" s="9">
-        <v>25</v>
-      </c>
-      <c r="F38" t="s">
-        <v>30</v>
-      </c>
-      <c r="G38" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" t="s">
-        <v>14</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D39">
-        <v>2040</v>
-      </c>
-      <c r="E39" s="9">
-        <v>30</v>
-      </c>
-      <c r="F39" t="s">
-        <v>30</v>
-      </c>
-      <c r="G39" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" t="s">
-        <v>14</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D40">
-        <v>2045</v>
-      </c>
-      <c r="E40" s="9">
-        <v>40</v>
-      </c>
-      <c r="F40" t="s">
-        <v>30</v>
-      </c>
-      <c r="G40" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" t="s">
-        <v>14</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D41">
-        <v>2050</v>
-      </c>
-      <c r="E41" s="9">
-        <v>50</v>
-      </c>
-      <c r="F41" t="s">
-        <v>30</v>
-      </c>
-      <c r="G41" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" t="s">
-        <v>14</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D42">
-        <v>2030</v>
-      </c>
-      <c r="E42" s="9">
-        <v>10</v>
-      </c>
-      <c r="F42" t="s">
-        <v>31</v>
-      </c>
-      <c r="G42" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" t="s">
-        <v>14</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D43">
-        <v>2035</v>
-      </c>
-      <c r="E43" s="9">
-        <v>20</v>
-      </c>
-      <c r="F43" t="s">
-        <v>31</v>
-      </c>
-      <c r="G43" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" t="s">
-        <v>14</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D44">
-        <v>2040</v>
-      </c>
-      <c r="E44" s="9">
-        <v>26</v>
-      </c>
-      <c r="F44" t="s">
-        <v>31</v>
-      </c>
-      <c r="G44" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" t="s">
-        <v>14</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D45">
-        <v>2045</v>
-      </c>
-      <c r="E45" s="9">
-        <v>35</v>
-      </c>
-      <c r="F45" t="s">
-        <v>31</v>
-      </c>
-      <c r="G45" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="46" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" t="s">
-        <v>14</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D46">
-        <v>2050</v>
-      </c>
-      <c r="E46" s="9">
-        <v>45</v>
-      </c>
-      <c r="F46" t="s">
-        <v>31</v>
-      </c>
-      <c r="G46" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="47" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-    </row>
-    <row r="48" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" t="s">
-        <v>6</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D48">
+      <c r="M50" s="9">
+        <v>2</v>
+      </c>
+      <c r="N50" s="9">
+        <v>5</v>
+      </c>
+      <c r="O50" s="9">
+        <v>8</v>
+      </c>
+      <c r="P50" s="9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="10:16" x14ac:dyDescent="0.2">
+      <c r="K51" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L51" s="9">
         <v>0</v>
       </c>
-      <c r="E48">
-        <v>2</v>
-      </c>
-      <c r="F48" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="49" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
-      <c r="E49">
-        <v>2</v>
-      </c>
-      <c r="F49" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="50" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D50">
-        <v>0</v>
-      </c>
-      <c r="E50">
-        <v>2</v>
-      </c>
-      <c r="F50" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="51" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J52" t="s">
-        <v>19</v>
-      </c>
-      <c r="K52" s="9">
-        <v>72.8</v>
-      </c>
-      <c r="L52" s="9">
-        <v>77</v>
-      </c>
-      <c r="M52" s="9">
-        <v>82</v>
-      </c>
-      <c r="N52" s="9">
-        <v>90</v>
-      </c>
-      <c r="O52" s="9">
-        <v>97</v>
-      </c>
-      <c r="P52" s="9">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="53" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J53" t="s">
-        <v>20</v>
-      </c>
-      <c r="K53" s="9"/>
-      <c r="L53" s="9">
-        <v>2030</v>
-      </c>
-      <c r="M53" s="9">
-        <v>2035</v>
-      </c>
-      <c r="N53" s="9">
-        <v>2040</v>
-      </c>
-      <c r="O53" s="9">
-        <v>2045</v>
-      </c>
-      <c r="P53" s="9">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="54" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J54" t="s">
-        <v>21</v>
-      </c>
-      <c r="K54" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="L54" s="9">
-        <v>13</v>
-      </c>
-      <c r="M54" s="9">
-        <v>20</v>
-      </c>
-      <c r="N54" s="9">
-        <v>30</v>
-      </c>
-      <c r="O54" s="9">
-        <v>32</v>
-      </c>
-      <c r="P54" s="9">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="55" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="K55" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="L55" s="9">
-        <v>16.883116883116884</v>
-      </c>
-      <c r="M55" s="9">
-        <v>24.390243902439025</v>
-      </c>
-      <c r="N55" s="9">
-        <v>33.333333333333329</v>
-      </c>
-      <c r="O55" s="9">
-        <v>32.989690721649481</v>
-      </c>
-      <c r="P55" s="9">
-        <v>28.18181818181818</v>
-      </c>
-    </row>
-    <row r="56" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="J56" t="s">
-        <v>24</v>
-      </c>
-      <c r="K56" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="L56" s="9">
-        <v>13</v>
-      </c>
-      <c r="M56" s="9">
-        <v>15</v>
-      </c>
-      <c r="N56" s="9">
-        <v>17</v>
-      </c>
-      <c r="O56" s="9">
-        <v>19</v>
-      </c>
-      <c r="P56" s="9">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="57" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="K57" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="L57" s="9">
-        <v>16.883116883116884</v>
-      </c>
-      <c r="M57" s="9">
-        <v>18.292682926829269</v>
-      </c>
-      <c r="N57" s="9">
-        <v>18.888888888888889</v>
-      </c>
-      <c r="O57" s="9">
-        <v>19.587628865979383</v>
-      </c>
-      <c r="P57" s="9">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="58" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="J58" t="s">
-        <v>25</v>
-      </c>
-      <c r="K58" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="L58" s="9">
-        <v>8.4</v>
-      </c>
-      <c r="M58" s="9">
-        <v>12</v>
-      </c>
-      <c r="N58" s="9">
-        <v>18</v>
-      </c>
-      <c r="O58" s="9">
-        <v>25</v>
-      </c>
-      <c r="P58" s="9">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="59" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="K59" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="L59" s="9">
-        <v>10.90909090909091</v>
-      </c>
-      <c r="M59" s="9">
-        <v>14.634146341463413</v>
-      </c>
-      <c r="N59" s="9">
-        <v>20</v>
-      </c>
-      <c r="O59" s="9">
-        <v>25.773195876288657</v>
-      </c>
-      <c r="P59" s="9">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="60" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="J60" t="s">
-        <v>26</v>
-      </c>
-      <c r="K60" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="L60" s="9">
-        <v>0</v>
-      </c>
-      <c r="M60" s="9">
-        <v>2</v>
-      </c>
-      <c r="N60" s="9">
-        <v>5</v>
-      </c>
-      <c r="O60" s="9">
-        <v>8</v>
-      </c>
-      <c r="P60" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="61" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="K61" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="L61" s="9">
-        <v>0</v>
-      </c>
-      <c r="M61" s="9">
+      <c r="M51" s="9">
         <v>2.4390243902439024</v>
       </c>
-      <c r="N61" s="9">
+      <c r="N51" s="9">
         <v>5.5555555555555554</v>
       </c>
-      <c r="O61" s="9">
+      <c r="O51" s="9">
         <v>8.2474226804123703</v>
       </c>
-      <c r="P61" s="9">
+      <c r="P51" s="9">
         <v>10.909090909090908</v>
       </c>
     </row>
-    <row r="65" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J65" s="3">
-        <f t="shared" ref="J65" si="0">K123</f>
+    <row r="55" spans="10:16" x14ac:dyDescent="0.2">
+      <c r="J55" s="3">
+        <f t="shared" ref="J55" si="0">K113</f>
         <v>0</v>
       </c>
     </row>

--- a/SuppXLS/Scen_NCAP_NUC_NASZ.xlsx
+++ b/SuppXLS/Scen_NCAP_NUC_NASZ.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\studia\gowno na raczynskiego\projekt-majn\Projekt-main\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\barte\Downloads\Projekt-main\Projekt-main\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62926BD0-EC48-491D-A26E-9146F6EE734D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F5FDB0-56EE-4EDB-AB95-9A7B14FE086C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="1932" windowWidth="12660" windowHeight="11028" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NCAP_BND" sheetId="1" r:id="rId1"/>
@@ -291,7 +291,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -309,7 +309,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Pakiet Office 2007–2010">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -347,7 +347,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pakiet Office 2007–2010">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -419,7 +419,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office 2007–2010">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -595,22 +595,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:P55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="119" zoomScaleNormal="126" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="119" zoomScaleNormal="126" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="3.5546875" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" customWidth="1"/>
     <col min="6" max="6" width="30" customWidth="1"/>
     <col min="7" max="11" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:14" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
@@ -619,7 +619,7 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="2:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
@@ -645,7 +645,7 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="2:14" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>8</v>
       </c>
@@ -663,7 +663,7 @@
       </c>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
         <v>13</v>
       </c>
@@ -674,7 +674,7 @@
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
     </row>
-    <row r="6" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
         <v>13</v>
       </c>
@@ -685,7 +685,7 @@
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
     </row>
-    <row r="7" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
         <v>14</v>
       </c>
@@ -702,7 +702,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
         <v>14</v>
       </c>
@@ -719,7 +719,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>14</v>
       </c>
@@ -736,7 +736,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="10" t="s">
         <v>14</v>
       </c>
@@ -753,7 +753,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>14</v>
       </c>
@@ -770,7 +770,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>14</v>
       </c>
@@ -781,14 +781,14 @@
         <v>2030</v>
       </c>
       <c r="E12" s="9">
-        <f>13*3/5</f>
-        <v>7.8</v>
+        <f>13</f>
+        <v>13</v>
       </c>
       <c r="F12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>14</v>
       </c>
@@ -799,14 +799,14 @@
         <v>2035</v>
       </c>
       <c r="E13" s="9">
-        <f>15*3/5</f>
-        <v>9</v>
+        <f>18</f>
+        <v>18</v>
       </c>
       <c r="F13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>14</v>
       </c>
@@ -817,14 +817,14 @@
         <v>2040</v>
       </c>
       <c r="E14" s="9">
-        <f>17*3/5</f>
-        <v>10.199999999999999</v>
+        <f>25</f>
+        <v>25</v>
       </c>
       <c r="F14" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>14</v>
       </c>
@@ -835,14 +835,13 @@
         <v>2045</v>
       </c>
       <c r="E15" s="9">
-        <f>19*3/5</f>
-        <v>11.4</v>
+        <v>34</v>
       </c>
       <c r="F15" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>14</v>
       </c>
@@ -853,14 +852,14 @@
         <v>2050</v>
       </c>
       <c r="E16" s="9">
-        <f>22*3/5</f>
-        <v>13.2</v>
+        <f>40</f>
+        <v>40</v>
       </c>
       <c r="F16" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>14</v>
       </c>
@@ -871,14 +870,14 @@
         <v>2030</v>
       </c>
       <c r="E17" s="9">
-        <f>8.4*3/5</f>
-        <v>5.0400000000000009</v>
+        <f>8.4</f>
+        <v>8.4</v>
       </c>
       <c r="F17" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>14</v>
       </c>
@@ -889,14 +888,14 @@
         <v>2035</v>
       </c>
       <c r="E18" s="9">
-        <f>12*3/5</f>
-        <v>7.2</v>
+        <f>12</f>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>14</v>
       </c>
@@ -907,14 +906,14 @@
         <v>2040</v>
       </c>
       <c r="E19" s="9">
-        <f>18*3/5</f>
-        <v>10.8</v>
+        <f>18</f>
+        <v>18</v>
       </c>
       <c r="F19" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>14</v>
       </c>
@@ -925,14 +924,14 @@
         <v>2045</v>
       </c>
       <c r="E20" s="9">
-        <f>25*3/5</f>
-        <v>15</v>
+        <f>25</f>
+        <v>25</v>
       </c>
       <c r="F20" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>14</v>
       </c>
@@ -943,14 +942,13 @@
         <v>2050</v>
       </c>
       <c r="E21" s="9">
-        <f>33*3/5</f>
-        <v>19.8</v>
+        <v>33</v>
       </c>
       <c r="F21" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>14</v>
       </c>
@@ -967,7 +965,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>14</v>
       </c>
@@ -984,7 +982,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>14</v>
       </c>
@@ -1001,7 +999,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>14</v>
       </c>
@@ -1018,7 +1016,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>14</v>
       </c>
@@ -1035,7 +1033,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>14</v>
       </c>
@@ -1055,7 +1053,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>14</v>
       </c>
@@ -1075,7 +1073,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>14</v>
       </c>
@@ -1095,7 +1093,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>14</v>
       </c>
@@ -1115,7 +1113,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>14</v>
       </c>
@@ -1135,7 +1133,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>14</v>
       </c>
@@ -1155,7 +1153,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>14</v>
       </c>
@@ -1175,7 +1173,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>14</v>
       </c>
@@ -1195,7 +1193,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>14</v>
       </c>
@@ -1215,7 +1213,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>14</v>
       </c>
@@ -1235,7 +1233,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="7" t="s">
         <v>15</v>
       </c>
@@ -1246,7 +1244,7 @@
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
     </row>
-    <row r="38" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>6</v>
       </c>
@@ -1263,7 +1261,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="3" t="s">
         <v>6</v>
       </c>
@@ -1280,7 +1278,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="3" t="s">
         <v>6</v>
       </c>
@@ -1297,8 +1295,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J42" t="s">
         <v>19</v>
       </c>
@@ -1321,7 +1319,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="43" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J43" t="s">
         <v>20</v>
       </c>
@@ -1342,7 +1340,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="44" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J44" t="s">
         <v>21</v>
       </c>
@@ -1365,7 +1363,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
       <c r="K45" s="9" t="s">
         <v>23</v>
       </c>
@@ -1385,7 +1383,7 @@
         <v>28.18181818181818</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J46" t="s">
         <v>24</v>
       </c>
@@ -1408,7 +1406,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
       <c r="K47" s="9" t="s">
         <v>23</v>
       </c>
@@ -1428,7 +1426,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J48" t="s">
         <v>25</v>
       </c>
@@ -1451,7 +1449,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="49" spans="10:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="10:16" x14ac:dyDescent="0.25">
       <c r="K49" s="9" t="s">
         <v>23</v>
       </c>
@@ -1471,7 +1469,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="10:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="10:16" x14ac:dyDescent="0.25">
       <c r="J50" t="s">
         <v>26</v>
       </c>
@@ -1494,7 +1492,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="10:16" x14ac:dyDescent="0.2">
+    <row r="51" spans="10:16" x14ac:dyDescent="0.25">
       <c r="K51" s="9" t="s">
         <v>23</v>
       </c>
@@ -1514,7 +1512,7 @@
         <v>10.909090909090908</v>
       </c>
     </row>
-    <row r="55" spans="10:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="10:16" x14ac:dyDescent="0.25">
       <c r="J55" s="3">
         <f t="shared" ref="J55" si="0">K113</f>
         <v>0</v>
@@ -1532,6 +1530,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100765A2D8ABDD1064B8560F0E0020228D7" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="faba48c57225b8cf4893994d76bae982">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="154c1c0f-2c06-4f37-a5b1-faba3524bf7f" xmlns:ns3="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="653a6a65a0f1497e1436c43ea8aacb76" ns2:_="" ns3:_="">
     <xsd:import namespace="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
@@ -1726,17 +1735,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1747,6 +1745,19 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0D1DF3B-E7FC-4762-97D3-E9AC14DDD5AF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="96cf5878-74d7-460f-a445-eb4c85d99a58"/>
+    <ds:schemaRef ds:uri="833e474d-e424-4496-95f1-98e7780be11a"/>
+    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
+    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8DDFBE94-8463-4610-B89B-ED8FC2DD2550}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1765,19 +1776,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0D1DF3B-E7FC-4762-97D3-E9AC14DDD5AF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="96cf5878-74d7-460f-a445-eb4c85d99a58"/>
-    <ds:schemaRef ds:uri="833e474d-e424-4496-95f1-98e7780be11a"/>
-    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
-    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
   <ds:schemaRefs>

--- a/SuppXLS/Scen_NCAP_NUC_NASZ.xlsx
+++ b/SuppXLS/Scen_NCAP_NUC_NASZ.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\barte\Downloads\Projekt-main\Projekt-main\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\barte\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F5FDB0-56EE-4EDB-AB95-9A7B14FE086C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4314C702-63BD-48DD-9215-40CBEC1D12D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="1932" windowWidth="12660" windowHeight="11028" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NCAP_BND" sheetId="1" r:id="rId1"/>
@@ -137,13 +137,13 @@
     <t>FLO_BND</t>
   </si>
   <si>
-    <t>HYDROGEN</t>
-  </si>
-  <si>
     <t>CAP_BND</t>
   </si>
   <si>
     <t>ELE_NEW_NUC_PWR</t>
+  </si>
+  <si>
+    <t>HYDROGEN_OUT</t>
   </si>
 </sst>
 </file>
@@ -595,8 +595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:P55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="119" zoomScaleNormal="126" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="119" zoomScaleNormal="126" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -690,7 +690,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D7" s="9">
         <v>2030</v>
@@ -707,7 +707,7 @@
         <v>14</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D8" s="9">
         <v>2035</v>
@@ -724,7 +724,7 @@
         <v>14</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D9" s="9">
         <v>2040</v>
@@ -741,7 +741,7 @@
         <v>14</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D10" s="9">
         <v>2045</v>
@@ -758,7 +758,7 @@
         <v>14</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D11" s="9">
         <v>2050</v>
@@ -775,7 +775,7 @@
         <v>14</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12">
         <v>2030</v>
@@ -793,7 +793,7 @@
         <v>14</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D13">
         <v>2035</v>
@@ -811,7 +811,7 @@
         <v>14</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D14">
         <v>2040</v>
@@ -829,7 +829,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D15">
         <v>2045</v>
@@ -846,7 +846,7 @@
         <v>14</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D16">
         <v>2050</v>
@@ -864,7 +864,7 @@
         <v>14</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D17">
         <v>2030</v>
@@ -882,7 +882,7 @@
         <v>14</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D18">
         <v>2035</v>
@@ -900,7 +900,7 @@
         <v>14</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D19">
         <v>2040</v>
@@ -918,7 +918,7 @@
         <v>14</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D20">
         <v>2045</v>
@@ -936,7 +936,7 @@
         <v>14</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D21">
         <v>2050</v>
@@ -953,7 +953,7 @@
         <v>14</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D22">
         <v>2030</v>
@@ -970,7 +970,7 @@
         <v>14</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D23">
         <v>2035</v>
@@ -987,7 +987,7 @@
         <v>14</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D24">
         <v>2040</v>
@@ -1004,7 +1004,7 @@
         <v>14</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D25">
         <v>2045</v>
@@ -1021,7 +1021,7 @@
         <v>14</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D26">
         <v>2050</v>
@@ -1050,7 +1050,7 @@
         <v>30</v>
       </c>
       <c r="G27" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1070,7 +1070,7 @@
         <v>30</v>
       </c>
       <c r="G28" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1090,7 +1090,7 @@
         <v>30</v>
       </c>
       <c r="G29" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1110,7 +1110,7 @@
         <v>30</v>
       </c>
       <c r="G30" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1130,7 +1130,7 @@
         <v>30</v>
       </c>
       <c r="G31" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1150,7 +1150,7 @@
         <v>31</v>
       </c>
       <c r="G32" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1170,7 +1170,7 @@
         <v>31</v>
       </c>
       <c r="G33" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1190,7 +1190,7 @@
         <v>31</v>
       </c>
       <c r="G34" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1210,7 +1210,7 @@
         <v>31</v>
       </c>
       <c r="G35" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1230,7 +1230,7 @@
         <v>31</v>
       </c>
       <c r="G36" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1292,7 +1292,7 @@
         <v>2</v>
       </c>
       <c r="F40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1530,17 +1530,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100765A2D8ABDD1064B8560F0E0020228D7" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="faba48c57225b8cf4893994d76bae982">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="154c1c0f-2c06-4f37-a5b1-faba3524bf7f" xmlns:ns3="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="653a6a65a0f1497e1436c43ea8aacb76" ns2:_="" ns3:_="">
     <xsd:import namespace="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
@@ -1735,6 +1724,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1745,19 +1745,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0D1DF3B-E7FC-4762-97D3-E9AC14DDD5AF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="96cf5878-74d7-460f-a445-eb4c85d99a58"/>
-    <ds:schemaRef ds:uri="833e474d-e424-4496-95f1-98e7780be11a"/>
-    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
-    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8DDFBE94-8463-4610-B89B-ED8FC2DD2550}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1776,6 +1763,19 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0D1DF3B-E7FC-4762-97D3-E9AC14DDD5AF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="96cf5878-74d7-460f-a445-eb4c85d99a58"/>
+    <ds:schemaRef ds:uri="833e474d-e424-4496-95f1-98e7780be11a"/>
+    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
+    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
   <ds:schemaRefs>
